--- a/HTML/0 Excel SRC Files/CS Excel.xlsx
+++ b/HTML/0 Excel SRC Files/CS Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC5FB1-21EE-4337-8906-FAD143268DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0612C8A-2724-40C1-B071-C483047947E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="537">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -598,28 +598,10 @@
 - تصميم</t>
   </si>
   <si>
-    <t>Youtube| Fouad Zawadi</t>
-  </si>
-  <si>
-    <t>Facebook| Power Platform</t>
-  </si>
-  <si>
-    <t>Youtube| ERP Consultants</t>
-  </si>
-  <si>
-    <t>Youtube| Power Apps</t>
-  </si>
-  <si>
-    <t>Youtube| Power Platform</t>
-  </si>
-  <si>
     <t>Databases</t>
   </si>
   <si>
     <t>Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://devoworx.net </t>
   </si>
   <si>
     <t xml:space="preserve">https://debug.to </t>
@@ -1654,6 +1636,33 @@
   </si>
   <si>
     <t>Laravel medium to advanced topics</t>
+  </si>
+  <si>
+    <t>Devoworx</t>
+  </si>
+  <si>
+    <t>FB| Power Platform بالعربي</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Power Platform</t>
+  </si>
+  <si>
+    <t>ERP Consultants</t>
+  </si>
+  <si>
+    <t>Egypt Power Platform User Group</t>
+  </si>
+  <si>
+    <t>SSRS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Fouad Zawadi</t>
   </si>
 </sst>
 </file>
@@ -2477,147 +2486,147 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2902,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1"/>
@@ -2940,7 +2949,7 @@
         <v>126</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="48.75" customHeight="1">
@@ -2989,26 +2998,26 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="48.75" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>178</v>
@@ -3023,7 +3032,7 @@
         <v>175</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -3051,20 +3060,20 @@
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="38" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="4.5" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="48.75" customHeight="1">
@@ -3095,10 +3104,10 @@
         <v>123</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>181</v>
@@ -3115,22 +3124,22 @@
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A10" s="71" t="s">
-        <v>524</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71" t="s">
-        <v>526</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="H10" s="71"/>
+      <c r="A10" s="74" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="H10" s="74"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="48.75" customHeight="1">
@@ -3234,31 +3243,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="69" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="69" t="s">
@@ -3267,25 +3276,25 @@
     </row>
     <row r="2" spans="1:11" ht="63.75" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -3293,55 +3302,55 @@
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="2.25" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="1:11" ht="70.5" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>220</v>
-      </c>
       <c r="I4" s="29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="70.5" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -3354,33 +3363,33 @@
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="1.5" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" ht="72.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -3391,16 +3400,16 @@
     </row>
     <row r="8" spans="1:11" ht="72.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -3411,13 +3420,13 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -3426,22 +3435,22 @@
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3500,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
@@ -3517,80 +3526,161 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>190</v>
+        <v>528</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>184</v>
+        <v>529</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="32.25" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>533</v>
+      </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1">
-      <c r="B6"/>
+      <c r="A6" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
-    <hyperlink ref="C3" r:id="rId3" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
-    <hyperlink ref="D3" r:id="rId4" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
-    <hyperlink ref="A3" r:id="rId5" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
-    <hyperlink ref="A1" r:id="rId6" xr:uid="{3F5F2594-99F8-4181-805F-853242DC599D}"/>
-    <hyperlink ref="B1" r:id="rId7" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
-    <hyperlink ref="E1" location="'0'!A1" display="Back" xr:uid="{352234C4-A9B2-4D1B-AACA-814F27504EFF}"/>
+    <hyperlink ref="E4" r:id="rId2" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
+    <hyperlink ref="D4" r:id="rId3" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
+    <hyperlink ref="C4" r:id="rId4" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
+    <hyperlink ref="B4" r:id="rId5" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
+    <hyperlink ref="B1" r:id="rId6" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
+    <hyperlink ref="F1" location="'0'!A1" display="Back" xr:uid="{352234C4-A9B2-4D1B-AACA-814F27504EFF}"/>
+    <hyperlink ref="A1" r:id="rId9" xr:uid="{4AD9430E-6D7C-47FA-8CEC-6CD3887A1AC0}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{B8497069-84B2-4EF2-A568-E7C09C8431B3}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{7701BD86-6D1B-41AA-9FFD-E8AC2F0D9F4B}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{B831E387-B919-4D3F-8ED5-12194E03B3CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3622,10 +3712,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="6"/>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="87"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
@@ -4194,16 +4284,16 @@
         <v>61</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D1" s="35"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="87"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -4363,7 +4453,7 @@
         <v>181</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -4503,201 +4593,201 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A2" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="G2" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="H2" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A2" s="90" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A4" s="96" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="90" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="52" t="s">
+      <c r="E4" s="96" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="52" t="s">
+      <c r="F4" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="52" t="s">
+      <c r="G4" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="53" t="s">
+      <c r="H4" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="103" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A4" s="92" t="s">
+    <row r="5" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A5" s="96"/>
+      <c r="B5" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="90" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="52" t="s">
         <v>364</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="52" t="s">
-        <v>370</v>
       </c>
       <c r="G5" s="93"/>
       <c r="H5" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="89"/>
+        <v>202</v>
+      </c>
+      <c r="J5" s="104"/>
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="H6" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A7" s="95"/>
+      <c r="B7" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="52" t="s">
         <v>374</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>377</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="J6" s="89"/>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="52" t="s">
-        <v>380</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="J7" s="89"/>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>387</v>
-      </c>
       <c r="H8" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" s="89"/>
+        <v>236</v>
+      </c>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="52" t="s">
         <v>13</v>
       </c>
@@ -4705,363 +4795,363 @@
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="52" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A10" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="J9" s="89"/>
-    </row>
-    <row r="10" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="90" t="s">
+      <c r="H10" s="55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A11" s="95"/>
+      <c r="B11" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="52" t="s">
         <v>389</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="52" t="s">
-        <v>395</v>
       </c>
       <c r="E11" s="93"/>
       <c r="F11" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="G11" s="91"/>
+        <v>390</v>
+      </c>
+      <c r="G11" s="92"/>
       <c r="H11" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="J11" s="96" t="s">
-        <v>397</v>
+        <v>374</v>
+      </c>
+      <c r="J11" s="101" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A12" s="95" t="s">
-        <v>398</v>
+      <c r="A12" s="94" t="s">
+        <v>392</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>400</v>
+        <v>353</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>394</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>374</v>
-      </c>
-      <c r="J12" s="97"/>
+        <v>368</v>
+      </c>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="52"/>
       <c r="C13" s="93"/>
       <c r="D13" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="91"/>
+        <v>363</v>
+      </c>
+      <c r="E13" s="92"/>
       <c r="F13" s="52" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G13" s="93"/>
       <c r="H13" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="J13" s="97"/>
+        <v>374</v>
+      </c>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A14" s="98" t="s">
-        <v>403</v>
+      <c r="A14" s="91" t="s">
+        <v>397</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>405</v>
+        <v>398</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>399</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="91" t="s">
-        <v>407</v>
+      <c r="G14" s="92" t="s">
+        <v>401</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" s="97"/>
+        <v>360</v>
+      </c>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A15" s="98"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="91"/>
+        <v>384</v>
+      </c>
+      <c r="C15" s="92"/>
       <c r="D15" s="52"/>
       <c r="E15" s="93"/>
       <c r="F15" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="91"/>
+        <v>206</v>
+      </c>
+      <c r="G15" s="92"/>
       <c r="H15" s="52"/>
-      <c r="J15" s="97"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A16" s="95" t="s">
-        <v>408</v>
+      <c r="A16" s="94" t="s">
+        <v>402</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>409</v>
+        <v>384</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>403</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>410</v>
+        <v>386</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>404</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G16" s="93" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="J16" s="97"/>
+        <v>384</v>
+      </c>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" s="90"/>
+        <v>406</v>
+      </c>
+      <c r="C17" s="95"/>
       <c r="D17" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="E17" s="92"/>
+        <v>396</v>
+      </c>
+      <c r="E17" s="96"/>
       <c r="F17" s="52" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G17" s="93"/>
       <c r="H17" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17" s="97"/>
+        <v>245</v>
+      </c>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>413</v>
+      <c r="A18" s="91" t="s">
+        <v>407</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>414</v>
+        <v>384</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>408</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>415</v>
+        <v>384</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>409</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>417</v>
+        <v>410</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="H18" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="91"/>
+        <v>412</v>
+      </c>
+      <c r="C19" s="92"/>
       <c r="D19" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="101"/>
+        <v>245</v>
+      </c>
+      <c r="E19" s="99"/>
       <c r="F19" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="G19" s="92"/>
       <c r="H19" s="55" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A20" s="102" t="s">
-        <v>419</v>
+      <c r="A20" s="100" t="s">
+        <v>413</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>421</v>
+        <v>360</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A21" s="102"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="52" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C21" s="93"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="91"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="52"/>
       <c r="G21" s="93"/>
       <c r="H21" s="55" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A22" s="98" t="s">
-        <v>423</v>
+      <c r="A22" s="91" t="s">
+        <v>417</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>424</v>
+        <v>353</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>418</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="91" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>421</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="C23" s="92"/>
       <c r="D23" s="55" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="91"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="53" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A24" s="95" t="s">
-        <v>430</v>
+      <c r="A24" s="94" t="s">
+        <v>424</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>432</v>
+        <v>354</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>426</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="G24" s="100" t="s">
-        <v>433</v>
+        <v>354</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>427</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A25" s="99"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="53" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="91"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="G25" s="90"/>
+        <v>363</v>
+      </c>
+      <c r="G25" s="95"/>
       <c r="H25" s="52" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1">
@@ -5079,6 +5169,41 @@
   </sheetData>
   <autoFilter ref="A1:D21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="51">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
@@ -5095,41 +5220,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="Elzero Web School " xr:uid="{042C9FE7-86ED-42C3-887C-991A5F4F6D35}"/>
@@ -5204,39 +5294,39 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="F1" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1">
       <c r="A2" s="59"/>
       <c r="B2" s="59" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" s="73"/>
+        <v>436</v>
+      </c>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1">
       <c r="A3" s="59"/>
@@ -5248,16 +5338,16 @@
     </row>
     <row r="4" spans="1:6" ht="32.25" customHeight="1">
       <c r="A4" s="59" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
@@ -5272,16 +5362,16 @@
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="59" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="59"/>
@@ -5289,20 +5379,20 @@
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
       <c r="A7" s="59"/>
       <c r="B7" s="59" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1">
       <c r="A8" s="59" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -5319,11 +5409,11 @@
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A10" s="103" t="s">
-        <v>455</v>
+      <c r="A10" s="106" t="s">
+        <v>449</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -5331,9 +5421,9 @@
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="103"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="59" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -5342,7 +5432,7 @@
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1">
       <c r="A12" s="59" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -5352,11 +5442,11 @@
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -5364,11 +5454,11 @@
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="59" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -5384,11 +5474,11 @@
     </row>
     <row r="16" spans="1:6" ht="32.25" customHeight="1">
       <c r="A16" s="59" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -5404,11 +5494,11 @@
     </row>
     <row r="18" spans="1:6" ht="32.25" customHeight="1">
       <c r="A18" s="59" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5416,11 +5506,11 @@
     </row>
     <row r="19" spans="1:6" ht="32.25" customHeight="1">
       <c r="A19" s="59" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -5494,445 +5584,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="117" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>467</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="116"/>
+      <c r="F2" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2" s="111"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1" s="107" t="s">
+      <c r="B3" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="C3" s="116" t="s">
         <v>471</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="D3" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="115" t="s">
         <v>472</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" s="107" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="104" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>478</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="105" t="s">
-        <v>479</v>
+      <c r="G3" s="116" t="s">
+        <v>473</v>
       </c>
       <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="104"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="104"/>
+        <v>474</v>
+      </c>
+      <c r="E4" s="115"/>
       <c r="F4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="105"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="115" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5" s="61" t="s">
         <v>481</v>
       </c>
-      <c r="B5" s="62" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="115"/>
+      <c r="B6" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="F6" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="116"/>
+      <c r="H6" s="61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.25">
+      <c r="A7" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="B7" s="64" t="s">
         <v>483</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>485</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>486</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="104"/>
-      <c r="B6" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="61" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="23.25">
-      <c r="A7" s="110" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>489</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
-      <c r="G7" s="109"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="23.25">
-      <c r="A8" s="110"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="64" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="109"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="23.25">
-      <c r="A9" s="108" t="s">
-        <v>491</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
+      <c r="A9" s="110" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:9" ht="23.25">
-      <c r="A10" s="110" t="s">
-        <v>492</v>
+      <c r="A10" s="107" t="s">
+        <v>486</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="91" t="s">
-        <v>493</v>
+      <c r="C10" s="92" t="s">
+        <v>487</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="110" t="s">
-        <v>494</v>
+      <c r="E10" s="107" t="s">
+        <v>488</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="110" t="s">
-        <v>495</v>
+      <c r="G10" s="107" t="s">
+        <v>489</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="112" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>495</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="112"/>
+      <c r="B14" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="109" t="s">
+      <c r="C14" s="113"/>
+      <c r="D14" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="112"/>
+      <c r="F14" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" s="113"/>
+      <c r="H14" s="65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23.25">
+      <c r="A15" s="113" t="s">
         <v>497</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="D15" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="E13" s="109" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="92" t="s">
         <v>500</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>501</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="109"/>
-      <c r="B14" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="65" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="23.25">
-      <c r="A15" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="109" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="112" t="s">
-        <v>505</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="91" t="s">
-        <v>506</v>
       </c>
       <c r="H15" s="54" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="23.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="65"/>
-      <c r="C16" s="109"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="23.25">
+      <c r="A17" s="92" t="s">
         <v>502</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="54" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="23.25">
-      <c r="A17" s="91" t="s">
-        <v>508</v>
-      </c>
       <c r="B17" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="C17" s="113"/>
+        <v>412</v>
+      </c>
+      <c r="C17" s="108"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="23.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="65"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="114"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="23.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="111" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="111"/>
+      <c r="B21" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="107" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="62" t="s">
+        <v>509</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="62" t="s">
+        <v>509</v>
+      </c>
+      <c r="G21" s="111"/>
+      <c r="H21" s="62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="111" t="s">
         <v>510</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B22" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="111" t="s">
         <v>511</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="D22" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="112"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="111"/>
+      <c r="B23" s="62" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" s="111"/>
+      <c r="D23" s="62" t="s">
+        <v>509</v>
+      </c>
+      <c r="E23" s="112"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="62"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25">
+      <c r="A24" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="E20" s="107" t="s">
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25">
+      <c r="A25" s="92" t="s">
         <v>513</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="G20" s="107" t="s">
+      <c r="B25" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="H20" s="62" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="107"/>
-      <c r="B21" s="62" t="s">
+      <c r="C25" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="62" t="s">
-        <v>515</v>
-      </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="62" t="s">
-        <v>515</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="62" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="107" t="s">
+      <c r="D25" s="64" t="s">
         <v>516</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>517</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="107"/>
-      <c r="B23" s="62" t="s">
-        <v>515</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="62" t="s">
-        <v>515</v>
-      </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25">
-      <c r="A24" s="108" t="s">
-        <v>518</v>
-      </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.25">
-      <c r="A25" s="91" t="s">
-        <v>519</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>520</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>521</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>522</v>
       </c>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
@@ -5940,13 +6030,13 @@
       <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="23.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="C26" s="110"/>
+        <v>517</v>
+      </c>
+      <c r="C26" s="107"/>
       <c r="D26" s="64" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
@@ -5955,29 +6045,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A5:A6"/>
@@ -5994,11 +6066,29 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="Troubleshooter Youssef Shawky" xr:uid="{433B5A8B-B0D5-4D3D-AFE0-5B1CF85B6F86}"/>
@@ -6045,8 +6135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6711AF-D3F2-49FD-BEFC-FA61E67402BC}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6055,39 +6145,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="115" t="s">
-        <v>528</v>
+      <c r="A1" s="70" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="116" t="s">
-        <v>529</v>
+      <c r="A2" s="71" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="72"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="115" t="s">
-        <v>530</v>
+      <c r="A5" s="70" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30">
-      <c r="A8" s="116" t="s">
-        <v>531</v>
+      <c r="A8" s="71" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="72"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="115" t="s">
-        <v>532</v>
+      <c r="A10" s="70" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="115" t="s">
-        <v>533</v>
+      <c r="A13" s="70" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6121,76 +6211,76 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1">
       <c r="A1" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>310</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>316</v>
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="73"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -6199,10 +6289,10 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -6211,7 +6301,7 @@
     <row r="8" spans="1:6" ht="30.75" customHeight="1">
       <c r="A8" s="43"/>
       <c r="B8" s="43" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -6219,10 +6309,10 @@
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -6230,10 +6320,10 @@
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -6241,7 +6331,7 @@
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -6250,10 +6340,10 @@
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -6261,10 +6351,10 @@
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -6272,7 +6362,7 @@
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -6282,7 +6372,7 @@
     <row r="15" spans="1:6" ht="30.75" customHeight="1">
       <c r="A15" s="43"/>
       <c r="B15" s="43" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -6334,22 +6424,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>11</v>
@@ -6357,100 +6447,100 @@
     </row>
     <row r="2" spans="1:7" ht="46.5" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="46.5" customHeight="1">
       <c r="A4" s="45" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F6" s="44"/>
     </row>
@@ -6464,19 +6554,19 @@
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F8" s="44"/>
     </row>
@@ -6490,33 +6580,33 @@
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" customHeight="1">
       <c r="A11" s="45" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -6532,13 +6622,13 @@
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1">
       <c r="A13" s="45" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -6554,16 +6644,16 @@
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
@@ -6660,10 +6750,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="53.25" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -6787,90 +6877,90 @@
         <v>156</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:8" ht="81.75" customHeight="1">
       <c r="A5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="G5" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>202</v>
-      </c>
       <c r="H5" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="81.75" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="81.75" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1">
@@ -6881,12 +6971,12 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="81.75" customHeight="1">
-      <c r="A10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="A10" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:8" ht="81.75" customHeight="1">
       <c r="A11" s="22"/>
@@ -6964,27 +7054,27 @@
     <row r="1" spans="1:5" ht="45" customHeight="1">
       <c r="A1" s="30"/>
       <c r="B1" s="30" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D2" s="30"/>
     </row>
@@ -7019,10 +7109,10 @@
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HTML/0 Excel SRC Files/CS Excel.xlsx
+++ b/HTML/0 Excel SRC Files/CS Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0612C8A-2724-40C1-B071-C483047947E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CE1B0-58EE-4029-BC62-CC4ABE70FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="538">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -1663,13 +1663,16 @@
   </si>
   <si>
     <t>Fouad Zawadi</t>
+  </si>
+  <si>
+    <t>Odata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,8 +1882,16 @@
       <color rgb="FF1C1E21"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1962,6 +1973,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,7 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2547,34 +2564,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,6 +2582,12 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,25 +2597,40 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2619,13 +2639,16 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,17 +2932,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="25.140625" style="24"/>
     <col min="8" max="8" width="23.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="24" customWidth="1"/>
     <col min="10" max="16384" width="25.140625" style="24"/>
   </cols>
   <sheetData>
@@ -3142,12 +3165,25 @@
       <c r="H10" s="74"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10" ht="48.75" customHeight="1">
-      <c r="J11" s="25"/>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A11" s="118" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" customHeight="1">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1">
@@ -3155,9 +3191,6 @@
     </row>
     <row r="15" spans="1:10" ht="48.75" customHeight="1">
       <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" ht="48.75" customHeight="1">
-      <c r="J16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3222,9 +3255,10 @@
     <hyperlink ref="E10:F10" location="Other!A1" display="Others Channels" xr:uid="{5C77BAD8-2B8B-4402-B402-BB0205CAEF7E}"/>
     <hyperlink ref="A1" r:id="rId38" xr:uid="{53DD8C16-5C3E-42FE-9A94-BA5B5F543CC5}"/>
     <hyperlink ref="G10:H10" location="G!A1" display="G!A1" xr:uid="{3C12F72B-8F42-47E3-8738-A262892C9F0D}"/>
+    <hyperlink ref="A11" r:id="rId39" xr:uid="{DA4840F7-0C24-48D6-8DDD-886BC9805B00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -4622,7 +4656,7 @@
       <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="91" t="s">
         <v>347</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -4634,7 +4668,7 @@
       <c r="D2" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="91" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="52" t="s">
@@ -4648,7 +4682,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="95"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="52" t="s">
         <v>353</v>
       </c>
@@ -4656,7 +4690,7 @@
       <c r="D3" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="E3" s="95"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="52" t="s">
         <v>355</v>
       </c>
@@ -4666,67 +4700,67 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="93" t="s">
         <v>357</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>358</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="93" t="s">
         <v>359</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="94" t="s">
         <v>361</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="99" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A5" s="96"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="91" t="s">
         <v>365</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>367</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="94" t="s">
         <v>369</v>
       </c>
       <c r="F6" s="52" t="s">
@@ -4738,10 +4772,10 @@
       <c r="H6" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="J6" s="104"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="52" t="s">
         <v>373</v>
       </c>
@@ -4749,7 +4783,7 @@
       <c r="D7" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="93"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="53" t="s">
         <v>375</v>
       </c>
@@ -4757,16 +4791,16 @@
       <c r="H7" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="J7" s="104"/>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="97" t="s">
         <v>377</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="94" t="s">
         <v>379</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -4778,20 +4812,20 @@
       <c r="F8" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="94" t="s">
         <v>381</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A9" s="94"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
@@ -4799,26 +4833,26 @@
       <c r="F9" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="93"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="J9" s="104"/>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="91" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="93" t="s">
         <v>385</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="94" t="s">
         <v>387</v>
       </c>
       <c r="F10" s="52" t="s">
@@ -4832,15 +4866,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="52" t="s">
         <v>390</v>
       </c>
@@ -4848,18 +4882,18 @@
       <c r="H11" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="95" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="97" t="s">
         <v>392</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="94" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -4871,18 +4905,18 @@
       <c r="F12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="94" t="s">
         <v>395</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="J12" s="102"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A13" s="94"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="52"/>
-      <c r="C13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="52" t="s">
         <v>363</v>
       </c>
@@ -4890,14 +4924,14 @@
       <c r="F13" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="G13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="J13" s="102"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="98" t="s">
         <v>397</v>
       </c>
       <c r="B14" s="52" t="s">
@@ -4909,7 +4943,7 @@
       <c r="D14" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="94" t="s">
         <v>400</v>
       </c>
       <c r="F14" s="52" t="s">
@@ -4921,71 +4955,71 @@
       <c r="H14" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="102"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A15" s="91"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="52" t="s">
         <v>384</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="52"/>
-      <c r="E15" s="93"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="52" t="s">
         <v>206</v>
       </c>
       <c r="G15" s="92"/>
       <c r="H15" s="52"/>
-      <c r="J15" s="102"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="97" t="s">
         <v>402</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="91" t="s">
         <v>403</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="93" t="s">
         <v>404</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="94" t="s">
         <v>405</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A17" s="94"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="E17" s="96"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="102"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="98" t="s">
         <v>407</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -4997,7 +5031,7 @@
       <c r="D18" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="104" t="s">
         <v>409</v>
       </c>
       <c r="F18" s="52" t="s">
@@ -5011,7 +5045,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A19" s="91"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="52" t="s">
         <v>412</v>
       </c>
@@ -5019,7 +5053,7 @@
       <c r="D19" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="52" t="s">
         <v>245</v>
       </c>
@@ -5029,13 +5063,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="105" t="s">
         <v>413</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="94" t="s">
         <v>414</v>
       </c>
       <c r="D20" s="52" t="s">
@@ -5047,7 +5081,7 @@
       <c r="F20" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="94" t="s">
         <v>416</v>
       </c>
       <c r="H20" s="55" t="s">
@@ -5055,21 +5089,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="52"/>
       <c r="E21" s="92"/>
       <c r="F21" s="52"/>
-      <c r="G21" s="93"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="55" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="98" t="s">
         <v>417</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -5081,7 +5115,7 @@
       <c r="D22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="94" t="s">
         <v>419</v>
       </c>
       <c r="F22" s="56" t="s">
@@ -5095,7 +5129,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A23" s="91"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="52" t="s">
         <v>245</v>
       </c>
@@ -5103,7 +5137,7 @@
       <c r="D23" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="52"/>
       <c r="G23" s="92"/>
       <c r="H23" s="53" t="s">
@@ -5111,13 +5145,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="97" t="s">
         <v>424</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="94" t="s">
         <v>425</v>
       </c>
       <c r="D24" s="51" t="s">
@@ -5129,7 +5163,7 @@
       <c r="F24" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="G24" s="98" t="s">
+      <c r="G24" s="103" t="s">
         <v>427</v>
       </c>
       <c r="H24" s="51" t="s">
@@ -5137,11 +5171,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A25" s="97"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="52" t="s">
         <v>13</v>
       </c>
@@ -5149,7 +5183,7 @@
       <c r="F25" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="G25" s="95"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="52" t="s">
         <v>245</v>
       </c>
@@ -5169,41 +5203,6 @@
   </sheetData>
   <autoFilter ref="A1:D21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="51">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
@@ -5220,6 +5219,41 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="Elzero Web School " xr:uid="{042C9FE7-86ED-42C3-887C-991A5F4F6D35}"/>
@@ -5584,25 +5618,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="108" t="s">
         <v>463</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="109" t="s">
         <v>464</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="107" t="s">
         <v>466</v>
       </c>
       <c r="F1" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="109" t="s">
         <v>467</v>
       </c>
       <c r="H1" s="62"/>
@@ -5611,70 +5645,70 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="108"/>
       <c r="B2" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="111"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="116"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G2" s="111"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="62"/>
       <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="111" t="s">
         <v>469</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="107" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="111" t="s">
         <v>472</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="107" t="s">
         <v>473</v>
       </c>
       <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="115"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="111" t="s">
         <v>475</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="107" t="s">
         <v>477</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -5686,7 +5720,7 @@
       <c r="F5" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="107" t="s">
         <v>480</v>
       </c>
       <c r="H5" s="61" t="s">
@@ -5694,11 +5728,11 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="115"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="61" t="s">
         <v>245</v>
       </c>
@@ -5706,13 +5740,13 @@
       <c r="F6" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="116"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="61" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="113" t="s">
         <v>482</v>
       </c>
       <c r="B7" s="64" t="s">
@@ -5726,7 +5760,7 @@
       <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="23.25">
-      <c r="A8" s="107"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="64" t="s">
         <v>484</v>
       </c>
@@ -5750,7 +5784,7 @@
       <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:9" ht="23.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="113" t="s">
         <v>486</v>
       </c>
       <c r="B10" s="64" t="s">
@@ -5762,13 +5796,13 @@
       <c r="D10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="113" t="s">
         <v>488</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="113" t="s">
         <v>489</v>
       </c>
       <c r="H10" s="64" t="s">
@@ -5776,7 +5810,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.25">
-      <c r="A11" s="107"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="64" t="s">
         <v>1</v>
       </c>
@@ -5784,11 +5818,11 @@
       <c r="D11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="107"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="64" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +5846,7 @@
       <c r="B13" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="114" t="s">
         <v>493</v>
       </c>
       <c r="D13" s="65" t="s">
@@ -5824,7 +5858,7 @@
       <c r="F13" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="114" t="s">
         <v>495</v>
       </c>
       <c r="H13" s="65" t="s">
@@ -5836,7 +5870,7 @@
       <c r="B14" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="65" t="s">
         <v>496</v>
       </c>
@@ -5844,13 +5878,13 @@
       <c r="F14" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="65" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="23.25">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="114" t="s">
         <v>497</v>
       </c>
       <c r="B15" s="65"/>
@@ -5860,7 +5894,7 @@
       <c r="D15" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="115" t="s">
         <v>499</v>
       </c>
       <c r="F15" s="65"/>
@@ -5872,13 +5906,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="23.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="65"/>
       <c r="C16" s="112"/>
       <c r="D16" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="65"/>
       <c r="G16" s="92"/>
       <c r="H16" s="54" t="s">
@@ -5892,11 +5926,11 @@
       <c r="B17" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="C17" s="108"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="108"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="23.25">
@@ -5904,11 +5938,11 @@
       <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="109"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="65"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="109"/>
+      <c r="G18" s="117"/>
       <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="23.25">
@@ -5924,25 +5958,25 @@
       <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="109" t="s">
         <v>504</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="109" t="s">
         <v>506</v>
       </c>
       <c r="D20" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="109" t="s">
         <v>507</v>
       </c>
       <c r="F20" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="109" t="s">
         <v>508</v>
       </c>
       <c r="H20" s="62" t="s">
@@ -5950,31 +5984,31 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="111"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="E21" s="111"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="G21" s="111"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="62" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="109" t="s">
         <v>510</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="109" t="s">
         <v>511</v>
       </c>
       <c r="D22" s="62" t="s">
@@ -5986,11 +6020,11 @@
       <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="111"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="C23" s="111"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="62" t="s">
         <v>509</v>
       </c>
@@ -6018,7 +6052,7 @@
       <c r="B25" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="113" t="s">
         <v>515</v>
       </c>
       <c r="D25" s="64" t="s">
@@ -6034,7 +6068,7 @@
       <c r="B26" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="C26" s="107"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="64" t="s">
         <v>514</v>
       </c>
@@ -6045,11 +6079,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A5:A6"/>
@@ -6066,29 +6118,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="Troubleshooter Youssef Shawky" xr:uid="{433B5A8B-B0D5-4D3D-AFE0-5B1CF85B6F86}"/>

--- a/HTML/0 Excel SRC Files/CS Excel.xlsx
+++ b/HTML/0 Excel SRC Files/CS Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D62717-D631-453C-B074-096A031420F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07184D-B065-4A5D-9BB3-3077FE1C420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,10 @@
     <sheet name="Problem Solving" sheetId="11" r:id="rId5"/>
     <sheet name="$" sheetId="2" r:id="rId6"/>
     <sheet name="JS" sheetId="3" r:id="rId7"/>
-    <sheet name="MS" sheetId="4" r:id="rId8"/>
-    <sheet name="3DP" sheetId="5" r:id="rId9"/>
-    <sheet name="Tips" sheetId="9" r:id="rId10"/>
-    <sheet name="Software" sheetId="7" r:id="rId11"/>
-    <sheet name="More" sheetId="15" r:id="rId12"/>
+    <sheet name="3DP" sheetId="5" r:id="rId8"/>
+    <sheet name="Tips" sheetId="9" r:id="rId9"/>
+    <sheet name="Software" sheetId="7" r:id="rId10"/>
+    <sheet name="More" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="422">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -77,9 +76,6 @@
     <t>JS</t>
   </si>
   <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
     <t>Laravel Livewire</t>
   </si>
   <si>
@@ -368,21 +364,9 @@
     <t>Socket.io</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
     <t>MEM Cached</t>
   </si>
   <si>
-    <t>Bower.io</t>
-  </si>
-  <si>
-    <t>Haskell</t>
-  </si>
-  <si>
-    <t>Scala</t>
-  </si>
-  <si>
     <t>Rabbitmq</t>
   </si>
   <si>
@@ -392,9 +376,6 @@
     <t>Redis</t>
   </si>
   <si>
-    <t>Yeoman</t>
-  </si>
-  <si>
     <t>Hasura</t>
   </si>
   <si>
@@ -404,15 +385,9 @@
     <t>Graph QL</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
-    <t>Rust</t>
-  </si>
-  <si>
     <t>Pusher</t>
   </si>
   <si>
@@ -521,9 +496,6 @@
     <t>Green Sock</t>
   </si>
   <si>
-    <t>Goal Kicker</t>
-  </si>
-  <si>
     <t>CS Careers</t>
   </si>
   <si>
@@ -533,40 +505,16 @@
     <t>Patterns</t>
   </si>
   <si>
-    <t>Hacker.IO</t>
-  </si>
-  <si>
-    <t>D Zone</t>
-  </si>
-  <si>
     <t>Algo Expert</t>
   </si>
   <si>
-    <t>Stack Share</t>
-  </si>
-  <si>
-    <t>Guru99</t>
-  </si>
-  <si>
-    <t>Hash Node</t>
-  </si>
-  <si>
-    <t>Indie Hackers</t>
-  </si>
-  <si>
     <t>Simple Programmer</t>
   </si>
   <si>
-    <t>Odin Proj</t>
-  </si>
-  <si>
     <t>Pramp</t>
   </si>
   <si>
     <t>Fullstack Cafe`</t>
-  </si>
-  <si>
-    <t>Digital Ocean</t>
   </si>
   <si>
     <t>Doctrine</t>
@@ -585,9 +533,6 @@
     <t>Databases</t>
   </si>
   <si>
-    <t xml:space="preserve">https://debug.to </t>
-  </si>
-  <si>
     <t>Does bootstrap have builtin padding and margin classes?</t>
   </si>
   <si>
@@ -633,9 +578,6 @@
     <t>Problem Solving</t>
   </si>
   <si>
-    <t xml:space="preserve">Geeks 4 Geeks </t>
-  </si>
-  <si>
     <t>Mozilla JS</t>
   </si>
   <si>
@@ -765,111 +707,36 @@
     <t>Deploy || Hosting || …</t>
   </si>
   <si>
-    <t>Embold</t>
-  </si>
-  <si>
-    <t>Nagios</t>
-  </si>
-  <si>
-    <t>Jfrog</t>
-  </si>
-  <si>
-    <t>Nginx</t>
-  </si>
-  <si>
-    <t>Data dog</t>
-  </si>
-  <si>
-    <t>Square Space</t>
-  </si>
-  <si>
-    <t>Kubernetes</t>
-  </si>
-  <si>
-    <t>Insomnia</t>
-  </si>
-  <si>
-    <t>Atlassian</t>
-  </si>
-  <si>
-    <t>Git Kraken</t>
-  </si>
-  <si>
-    <t>Mutaz .Net</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>W3 Schools</t>
-  </si>
-  <si>
     <t>Visualgo</t>
   </si>
   <si>
     <t>Algorithm Visualizer</t>
   </si>
   <si>
-    <t>Mailchimp</t>
-  </si>
-  <si>
-    <t>Wappalyzer</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
     <t>Diagrams</t>
   </si>
   <si>
     <t>Online SIM</t>
   </si>
   <si>
-    <t>Image Compressor</t>
-  </si>
-  <si>
     <t>Creately</t>
   </si>
   <si>
-    <t>Edabit</t>
-  </si>
-  <si>
     <t>Multcloud</t>
   </si>
   <si>
-    <t>Html Quick</t>
-  </si>
-  <si>
     <t>tableconvert</t>
   </si>
   <si>
-    <t>Html Ref</t>
-  </si>
-  <si>
     <t>Moataz Mgeed</t>
   </si>
   <si>
-    <t>Apify</t>
-  </si>
-  <si>
-    <t>C Panel</t>
-  </si>
-  <si>
     <t>Web Flow</t>
   </si>
   <si>
-    <t>Remove BG</t>
-  </si>
-  <si>
     <t>crucial</t>
   </si>
   <si>
-    <t>Math Works</t>
-  </si>
-  <si>
-    <t>rondebruin</t>
-  </si>
-  <si>
     <t>Hive</t>
   </si>
   <si>
@@ -925,9 +792,6 @@
   </si>
   <si>
     <t>Mohamed Shaltout</t>
-  </si>
-  <si>
-    <t>NGT IMG</t>
   </si>
   <si>
     <t>SEC</t>
@@ -1060,9 +924,6 @@
 Geeks</t>
   </si>
   <si>
-    <t>Power Apps</t>
-  </si>
-  <si>
     <t>محمود سمير</t>
   </si>
   <si>
@@ -1428,40 +1289,10 @@
     <t>Laravel medium to advanced topics</t>
   </si>
   <si>
-    <t>Devoworx</t>
-  </si>
-  <si>
-    <t>FB| Power Platform بالعربي</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Power Platform</t>
-  </si>
-  <si>
-    <t>ERP Consultants</t>
-  </si>
-  <si>
-    <t>Egypt Power Platform User Group</t>
-  </si>
-  <si>
-    <t>Fouad Zawadi</t>
-  </si>
-  <si>
-    <t>Odata</t>
-  </si>
-  <si>
     <t>English Youtube Channels</t>
   </si>
   <si>
     <t>Arabic Youtube Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB| Dotnet Egypt </t>
-  </si>
-  <si>
-    <t>FB| .Net Developers EG</t>
   </si>
   <si>
     <t>More…</t>
@@ -1469,13 +1300,19 @@
   <si>
     <t>Troubleshooter 
 Youssef</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>Amr Mohamed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,14 +1373,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1748,7 +1577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2026,12 +1855,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,15 +1895,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2081,40 +1910,37 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2127,69 +1953,144 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2219,85 +2120,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2581,1061 +2413,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="35.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="20" style="66" customWidth="1"/>
-    <col min="3" max="3" width="25" style="66" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="66" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="66" customWidth="1"/>
-    <col min="9" max="9" width="18" style="66" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="25.140625" style="66"/>
+    <col min="1" max="1" width="20.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="20" style="43" customWidth="1"/>
+    <col min="3" max="3" width="25" style="43" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="18" style="43" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="25.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="67" t="s">
+      <c r="E2" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1">
+      <c r="A3" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A5" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A8" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A9" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A3" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-    </row>
-    <row r="6" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A6" s="73" t="s">
+      <c r="F9" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A10" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A11" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A12" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A13" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="73" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1">
+      <c r="A15" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A16" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="B16" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="C16" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>407</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>415</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="D16" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="E16" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="G16" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="76" t="s">
+      <c r="I16" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A17" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A18" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>410</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>418</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A8" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>405</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>412</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>416</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="K8" s="73" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A9" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-    </row>
-    <row r="11" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A11" s="73" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>345</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A12" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>361</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>360</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A13" s="73" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="K13" s="80" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A14" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>366</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="J14" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="K14" s="74" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>427</v>
-      </c>
-      <c r="I15" s="83" t="s">
-        <v>475</v>
-      </c>
-      <c r="J15" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="K15" s="80" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A16" s="74" t="s">
-        <v>422</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>426</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="K16" s="68"/>
-    </row>
-    <row r="17" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A17" s="91" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>435</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75">
-      <c r="A18" s="72" t="s">
-        <v>436</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="68"/>
-    </row>
-    <row r="19" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A19" s="84" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>439</v>
-      </c>
-      <c r="D19" s="85" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>442</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>444</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="I19" s="86" t="s">
-        <v>445</v>
-      </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-    </row>
+      <c r="H18" s="50"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" ht="24.75" customHeight="1"/>
     <row r="20" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A20" s="91" t="s">
-        <v>446</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>448</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>450</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>451</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>452</v>
-      </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-    </row>
-    <row r="21" spans="1:11" ht="36" customHeight="1">
-      <c r="A21" s="91" t="s">
-        <v>453</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>454</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="68"/>
-    </row>
-    <row r="22" spans="1:11" ht="35.25" customHeight="1">
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="68"/>
-      <c r="K22" s="68"/>
-    </row>
-    <row r="23" spans="1:11" ht="35.25" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
+      <c r="K20" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A5:J5"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J4" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
-    <hyperlink ref="K6" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://socket.io/" xr:uid="{6154548E-A188-4189-B13D-7C1F67C97B67}"/>
-    <hyperlink ref="A3" r:id="rId4" display="https://www.phoenixframework.org/" xr:uid="{D04CC59A-A3DA-4614-BBD5-844631708636}"/>
-    <hyperlink ref="D1" r:id="rId5" display="https://memcached.org/" xr:uid="{F5B1D6BF-BC8F-4ABA-B744-79361E67826C}"/>
-    <hyperlink ref="E2" r:id="rId6" display="https://bower.io/" xr:uid="{2948DE47-70E7-4485-BE0F-718E84FC4BEE}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.haskell.org/" xr:uid="{EB52E45C-4DEB-4FAC-B85B-C80D6149DAF1}"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://www.scala-lang.org/" xr:uid="{9555B657-7A70-4225-BB07-76E6B412A1CC}"/>
-    <hyperlink ref="B1" r:id="rId9" display="https://www.rabbitmq.com/" xr:uid="{377861E7-D3E8-4DCC-8F1B-A3365FC3412D}"/>
-    <hyperlink ref="E1" r:id="rId10" display="https://nsq.io/" xr:uid="{8DF2D701-1525-4E94-BAFA-C73703EE09EF}"/>
-    <hyperlink ref="C1" r:id="rId11" display="https://redis.io/" xr:uid="{B45D0004-7B99-4C07-9656-619FEE6239C4}"/>
-    <hyperlink ref="D2" r:id="rId12" display="https://yeoman.io/" xr:uid="{85CFFA58-938C-4F81-9E13-16331FD4FFA3}"/>
-    <hyperlink ref="F1" r:id="rId13" display="https://hasura.io/" xr:uid="{B8831BE2-9CF1-418D-BF4D-D3A4A8AC7B70}"/>
-    <hyperlink ref="G1" r:id="rId14" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
-    <hyperlink ref="F2" r:id="rId15" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
-    <hyperlink ref="I1" r:id="rId16" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
-    <hyperlink ref="C2" r:id="rId17" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
-    <hyperlink ref="H1" r:id="rId18" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
-    <hyperlink ref="I2" r:id="rId19" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="J2" r:id="rId20" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
-    <hyperlink ref="D3" r:id="rId21" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
-    <hyperlink ref="I3" r:id="rId22" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
-    <hyperlink ref="E4" r:id="rId23" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
-    <hyperlink ref="F4" r:id="rId24" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
-    <hyperlink ref="E3" r:id="rId25" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
-    <hyperlink ref="H2" r:id="rId26" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
-    <hyperlink ref="F3" r:id="rId27" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
-    <hyperlink ref="A4" r:id="rId28" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
-    <hyperlink ref="G3" r:id="rId29" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
-    <hyperlink ref="B4" r:id="rId30" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
-    <hyperlink ref="H4" r:id="rId31" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
-    <hyperlink ref="J3" r:id="rId32" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
-    <hyperlink ref="H3" r:id="rId33" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
-    <hyperlink ref="G4" r:id="rId34" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
-    <hyperlink ref="D4" r:id="rId35" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
-    <hyperlink ref="C4" r:id="rId36" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
-    <hyperlink ref="K4" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
-    <hyperlink ref="K7" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
+    <hyperlink ref="K6" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
+    <hyperlink ref="I1" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://socket.io/" xr:uid="{6154548E-A188-4189-B13D-7C1F67C97B67}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://memcached.org/" xr:uid="{F5B1D6BF-BC8F-4ABA-B744-79361E67826C}"/>
+    <hyperlink ref="B1" r:id="rId5" display="https://www.rabbitmq.com/" xr:uid="{377861E7-D3E8-4DCC-8F1B-A3365FC3412D}"/>
+    <hyperlink ref="E1" r:id="rId6" display="https://nsq.io/" xr:uid="{8DF2D701-1525-4E94-BAFA-C73703EE09EF}"/>
+    <hyperlink ref="C1" r:id="rId7" display="https://redis.io/" xr:uid="{B45D0004-7B99-4C07-9656-619FEE6239C4}"/>
+    <hyperlink ref="F1" r:id="rId8" display="https://hasura.io/" xr:uid="{B8831BE2-9CF1-418D-BF4D-D3A4A8AC7B70}"/>
+    <hyperlink ref="G1" r:id="rId9" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
+    <hyperlink ref="H1" r:id="rId11" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
+    <hyperlink ref="J1" r:id="rId12" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
+    <hyperlink ref="G2" r:id="rId13" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
+    <hyperlink ref="H2" r:id="rId14" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
+    <hyperlink ref="J2" r:id="rId15" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
+    <hyperlink ref="I2" r:id="rId16" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
+    <hyperlink ref="F2" r:id="rId17" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
+    <hyperlink ref="E2" r:id="rId18" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
+    <hyperlink ref="B2" r:id="rId19" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
+    <hyperlink ref="K7" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
+    <hyperlink ref="K4" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
     <hyperlink ref="K1" location="'UI-UX'!A1" display="UI - UX" xr:uid="{594D8BC3-DE67-4364-9022-77D27E9275E2}"/>
     <hyperlink ref="K3" location="More!A1" display="More" xr:uid="{B8A510D4-2AB8-47AF-98BE-682B31F2FE85}"/>
     <hyperlink ref="K2" location="SEC!A1" display="SEC" xr:uid="{E9831F57-1C65-46CF-B4BD-F47494748784}"/>
-    <hyperlink ref="A1" r:id="rId37" xr:uid="{53DD8C16-5C3E-42FE-9A94-BA5B5F543CC5}"/>
-    <hyperlink ref="J1" r:id="rId38" xr:uid="{DA4840F7-0C24-48D6-8DDD-886BC9805B00}"/>
-    <hyperlink ref="B6" r:id="rId39" display="https://www.youtube.com/@AaronJack/videos" xr:uid="{CDCE6ADC-562F-4391-B414-2FA14C5C4F19}"/>
-    <hyperlink ref="C6" r:id="rId40" display="https://www.youtube.com/c/TraversyMedia/videos" xr:uid="{552FBA06-C19D-44FC-9836-8FA87345C50E}"/>
-    <hyperlink ref="A9" r:id="rId41" display="https://www.youtube.com/c/ProgramWithErik/videos" xr:uid="{ED295BFF-A92D-4304-8B83-D034797A270D}"/>
-    <hyperlink ref="H7" r:id="rId42" display="https://www.youtube.com/c/Freecodecamp/videos" xr:uid="{57F022EF-9778-4279-826F-5E7FCE538B58}"/>
-    <hyperlink ref="D6" r:id="rId43" display="https://www.youtube.com/c/WebDevSimplified/playlists" xr:uid="{40E103EF-DBAA-4A7E-ABE3-D98871D6ACB8}"/>
-    <hyperlink ref="E6" r:id="rId44" display="https://www.youtube.com/c/CodingAddict/videos" xr:uid="{CED34249-9AC9-48CB-9DC2-0E0678177168}"/>
-    <hyperlink ref="A6" r:id="rId45" display="https://www.youtube.com/@javascriptmastery/videos" xr:uid="{53FFEB8A-75BD-451F-A4F4-507269A4285E}"/>
-    <hyperlink ref="F6" r:id="rId46" display="https://www.youtube.com/c/drehimself/playlists" xr:uid="{1D2D5D31-7115-4F5D-8AA9-B40DEFAA3A8D}"/>
-    <hyperlink ref="G6" r:id="rId47" display="https://www.youtube.com/c/programmingwithmosh/videos" xr:uid="{DA2124A6-2D87-406B-B1A5-16C68EC129E3}"/>
-    <hyperlink ref="K8" r:id="rId48" display="https://www.youtube.com/c/TheCodingTrain/videos" xr:uid="{0ACD74AC-5589-477B-AD63-04E370FB13DD}"/>
-    <hyperlink ref="H8" r:id="rId49" display="https://www.youtube.com/c/Csharp-video-tutorialsBlogspot/videos" xr:uid="{AA695EF5-C3F1-4738-B6F9-7CB3EC8BD31F}"/>
-    <hyperlink ref="H6" r:id="rId50" display="https://www.youtube.com/c/IBMTechnology/videos" xr:uid="{F6D2592E-B52E-47F7-96A0-FDBD9C647082}"/>
-    <hyperlink ref="A7" r:id="rId51" display="https://www.youtube.com/user/thenewboston/videos" xr:uid="{B210EA99-A466-46DC-BC9C-97369B26DE6A}"/>
-    <hyperlink ref="B7" r:id="rId52" display="https://www.youtube.com/c/Bedimcode/videos" xr:uid="{591E0A73-A608-4161-B3E0-5F2B2627E565}"/>
-    <hyperlink ref="C7" r:id="rId53" display="https://www.youtube.com/c/Mdbootstrap/videos" xr:uid="{01B9D8D4-D246-4F20-84E5-F38611590B18}"/>
-    <hyperlink ref="D7" r:id="rId54" display="https://www.youtube.com/c/Divinector/videos" xr:uid="{66B7E1EC-032D-43AD-B9DD-5045D6B1DCD3}"/>
-    <hyperlink ref="B9" r:id="rId55" display="https://www.youtube.com/c/CodingNepal/videos" xr:uid="{553C8AA2-4DFB-4B9C-9F37-BD32AB07B918}"/>
-    <hyperlink ref="J7" r:id="rId56" display="https://www.youtube.com/c/codewithsadee/featured" xr:uid="{BF2D7DBD-FD18-40B5-8A20-82BC90A7B55D}"/>
-    <hyperlink ref="E7" r:id="rId57" display="https://www.youtube.com/c/MrWebDesignerAnas/videos" xr:uid="{50D4C54E-4793-4E52-9F1E-5EF192B94471}"/>
-    <hyperlink ref="A8" r:id="rId58" display="https://www.youtube.com/c/HusseinNasser-software-engineering/videos" xr:uid="{09E63D11-BDE5-45BA-A866-A53863B7B7E6}"/>
-    <hyperlink ref="B8" r:id="rId59" display="https://www.youtube.com/c/NullByteWHT/videos" xr:uid="{82144690-AC2E-4DC1-90C0-30DCB15A06EB}"/>
-    <hyperlink ref="C8" r:id="rId60" display="https://www.youtube.com/@glich.stream/videos" xr:uid="{80A915AB-E7C9-4A50-9274-10BDA5340CCB}"/>
-    <hyperlink ref="J6" r:id="rId61" display="https://www.youtube.com/c/CodeMonkeyUnity/videos" xr:uid="{D1DB27DD-0E02-4397-B829-2269CB6B0D51}"/>
-    <hyperlink ref="I8" r:id="rId62" display="https://www.youtube.com/c/derekbanas/videos" xr:uid="{06C2E9BD-6EF7-489D-84FC-007C534CA3E0}"/>
-    <hyperlink ref="D8" r:id="rId63" display="https://www.youtube.com/@GeeksLesson/videos" xr:uid="{29B4CAFA-9B7C-4F0B-9124-C231DE35F525}"/>
-    <hyperlink ref="F7" r:id="rId64" display="https://www.youtube.com/@EasyTutorialsVideo/videos" xr:uid="{DE765ACE-49E9-4E9F-99D5-33ED6D6B3248}"/>
-    <hyperlink ref="E8" r:id="rId65" display="https://www.youtube.com/@Devdojo/videos" xr:uid="{5DA4350C-0804-4502-A352-BAEA8ACC7981}"/>
-    <hyperlink ref="F8" r:id="rId66" display="https://www.youtube.com/@gennadykorotkevich8583/videos" xr:uid="{2061811F-1BFB-4014-9A8C-2E418A73504C}"/>
-    <hyperlink ref="J8" r:id="rId67" display="https://www.youtube.com/@NetNinja/videos" xr:uid="{FCC10538-7057-4FDC-A419-D1F674F39ECE}"/>
-    <hyperlink ref="I7" r:id="rId68" display="https://www.youtube.com/@nesoacademy/playlists" xr:uid="{B3B96C55-5C5F-4886-AA60-36B4FED83589}"/>
-    <hyperlink ref="G8" r:id="rId69" display="https://www.youtube.com/@Telmosampaio/videos" xr:uid="{4D832DDC-338C-4401-88B5-BB94EB2D9EFA}"/>
-    <hyperlink ref="G7" r:id="rId70" display="https://www.youtube.com/@academind/videos" xr:uid="{B68F0714-2D2A-4302-9AD7-9417AAD3C496}"/>
-    <hyperlink ref="D11" r:id="rId71" xr:uid="{6DEB8276-3DB7-47CE-83EE-03A961CF411F}"/>
-    <hyperlink ref="A13:A14" r:id="rId72" display="د احمد سالم" xr:uid="{E0B87021-DDDD-487F-B690-B802ACF2250C}"/>
-    <hyperlink ref="H11:H12" r:id="rId73" display="Mostafa Ibrahim" xr:uid="{B60FE087-C7FB-4C06-88B7-94A81752B286}"/>
-    <hyperlink ref="F11" r:id="rId74" xr:uid="{E58EAE39-8D52-4052-BAC6-3D66AF8351CB}"/>
-    <hyperlink ref="C15" r:id="rId75" xr:uid="{C0F582AD-36E7-4D4A-A73D-067D25548676}"/>
-    <hyperlink ref="B11" r:id="rId76" xr:uid="{F56BF516-B532-426A-9FA9-E8F8FFD08D25}"/>
-    <hyperlink ref="K13" r:id="rId77" xr:uid="{0E2B3541-D8CF-4394-9666-827680B39611}"/>
-    <hyperlink ref="K14" r:id="rId78" xr:uid="{63306BF5-932C-4D10-86ED-384DC954AAE2}"/>
-    <hyperlink ref="F11" r:id="rId79" display="عمرو غنيم" xr:uid="{B7345256-B326-42EC-9F09-67B433748932}"/>
-    <hyperlink ref="K12" r:id="rId80" xr:uid="{1B573493-63BF-4A67-89F1-677A93D81950}"/>
-    <hyperlink ref="J13" r:id="rId81" xr:uid="{94C7AC57-206C-4653-B9DF-4B53A105EE5A}"/>
-    <hyperlink ref="I14" r:id="rId82" xr:uid="{B66D40EA-B007-4575-82A9-4312B399FBC6}"/>
-    <hyperlink ref="J14" r:id="rId83" display="https://www.youtube.com/user/quantum01010101/videos" xr:uid="{2B7471E3-3DF0-4077-A577-C0241D70B4D2}"/>
-    <hyperlink ref="J11" r:id="rId84" xr:uid="{E9BA8146-63BA-4ECC-9FB5-0C9E37932207}"/>
-    <hyperlink ref="H14" r:id="rId85" display="Ramy Hakam" xr:uid="{A3053254-9A90-4EAD-95B7-C264ED23BAE5}"/>
-    <hyperlink ref="K11" r:id="rId86" display="Mahmoud Hamza" xr:uid="{A6B863E7-00E2-4E4A-9169-9088FC9AE525}"/>
-    <hyperlink ref="J12" r:id="rId87" display="Ahmed Rabie" xr:uid="{1B06C340-8268-4A40-8264-F64DCCF24B52}"/>
-    <hyperlink ref="A11" r:id="rId88" display="Codographia" xr:uid="{6B61F208-7241-4160-9239-17A410F707B7}"/>
-    <hyperlink ref="G14" r:id="rId89" display="Yallacode" xr:uid="{152703B2-7109-4991-A7B6-93FDF5ADC3B9}"/>
-    <hyperlink ref="D14" r:id="rId90" xr:uid="{9702F97C-E5E9-4BA0-8F1B-570FF9A78DFB}"/>
-    <hyperlink ref="G12" r:id="rId91" display="Ahmed Elemam" xr:uid="{CFA0D417-52C6-4758-AD80-C47090AF7448}"/>
-    <hyperlink ref="B13" r:id="rId92" display="Ahmed Ali" xr:uid="{D9C365E6-4006-4810-8E05-EEC3C6341604}"/>
-    <hyperlink ref="H13" r:id="rId93" display="Mohamed Moshrif" xr:uid="{5C4A5B3A-541F-4D17-B39A-55D413055249}"/>
-    <hyperlink ref="B12" r:id="rId94" display="Mohamed Elsherif" xr:uid="{9D5B0049-ED5B-4501-A8E2-AC70B99E4C36}"/>
-    <hyperlink ref="C13:C14" r:id="rId95" display="Software ArchTalks" xr:uid="{F7F955F0-7859-46BA-B427-E26A26E09528}"/>
-    <hyperlink ref="D15" r:id="rId96" xr:uid="{515338FB-7280-4251-87BE-DAD5216069A7}"/>
-    <hyperlink ref="H13:H14" r:id="rId97" display="Unique Coderz Academy" xr:uid="{954502D8-2BB2-4CBE-BB1F-B36DFCE6158E}"/>
-    <hyperlink ref="C11" r:id="rId98" display="Power Platform Geeks" xr:uid="{2C86C2E7-8191-401F-8311-A1E9B95423DC}"/>
-    <hyperlink ref="D12" r:id="rId99" display="أكاديمية علوم المستقبل" xr:uid="{191CDB48-5C28-43D8-BE67-F7F31B6A96E2}"/>
-    <hyperlink ref="B15" r:id="rId100" xr:uid="{BE87DB9E-FE55-4AE1-A369-7D8D9D3D0D92}"/>
-    <hyperlink ref="C12" r:id="rId101" display="Tech Talks in Arabic" xr:uid="{BFEFAD2D-2B5B-4F44-BE92-574B47CAA73B}"/>
-    <hyperlink ref="B14" r:id="rId102" display="codeZone" xr:uid="{803D0DCB-CA2C-4D6E-9EC6-019A235835B0}"/>
-    <hyperlink ref="E13" r:id="rId103" xr:uid="{C4D20A37-B811-48D0-8F12-4B945331DFC9}"/>
-    <hyperlink ref="E12" r:id="rId104" display="Mohamed Radwan" xr:uid="{3C6AD7DD-F10D-4D0B-A5AA-40D543FE1284}"/>
-    <hyperlink ref="I11" r:id="rId105" xr:uid="{D4D8E4F8-C35F-41C1-971C-B74D02FFD7D9}"/>
-    <hyperlink ref="A14" r:id="rId106" display="Mohammed Reda" xr:uid="{A0DF64ED-6E18-40F0-BE3A-A623BDBE7C85}"/>
-    <hyperlink ref="F14" r:id="rId107" display="Adel Sabour" xr:uid="{28F9FE34-C927-4AFF-95BD-41B6D00E2DB8}"/>
-    <hyperlink ref="G13" r:id="rId108" xr:uid="{7955FE3E-49DD-4825-8F58-E07F6D803AF6}"/>
-    <hyperlink ref="A15" r:id="rId109" xr:uid="{CED1E2D7-8A80-4A39-91AA-6A85626F7AF5}"/>
-    <hyperlink ref="D13" r:id="rId110" xr:uid="{59456DD3-842C-4BB4-9420-AEEF9C3778DE}"/>
-    <hyperlink ref="I13" r:id="rId111" display="Adel Nasim " xr:uid="{87308E2D-5038-4FDB-B741-F05D2175E917}"/>
-    <hyperlink ref="A12" r:id="rId112" display="Elzero Web School " xr:uid="{042C9FE7-86ED-42C3-887C-991A5F4F6D35}"/>
-    <hyperlink ref="I15" r:id="rId113" display="Troubleshooter Youssef Shawky" xr:uid="{433B5A8B-B0D5-4D3D-AFE0-5B1CF85B6F86}"/>
-    <hyperlink ref="J15" r:id="rId114" xr:uid="{6AB742FB-16E7-468F-A229-5355F89A2FF8}"/>
-    <hyperlink ref="C16" r:id="rId115" display="Mohamed Ebrahim Saad" xr:uid="{AA31F398-F28F-4D80-B9CD-173873E7BB95}"/>
-    <hyperlink ref="D16" r:id="rId116" display="Ahmed Etefy أحمد عطيفي" xr:uid="{A6904940-7ECA-4108-A724-E5821FB25E0D}"/>
-    <hyperlink ref="A16" r:id="rId117" xr:uid="{B990FC83-DE00-4E00-99EB-0B159B93FFE7}"/>
-    <hyperlink ref="F15" r:id="rId118" xr:uid="{71A59E60-8CA1-47E2-AE89-77B4F26F52CF}"/>
-    <hyperlink ref="E16" r:id="rId119" xr:uid="{A9E12E3F-BAB0-455E-A0CD-65627B1B0405}"/>
-    <hyperlink ref="H15" r:id="rId120" xr:uid="{527770B5-405B-44C7-8542-0841810042C4}"/>
-    <hyperlink ref="E15" r:id="rId121" xr:uid="{DDD3F70D-2DDB-40DD-99E0-DE6958D511A7}"/>
-    <hyperlink ref="K15" r:id="rId122" xr:uid="{7876CC36-0C8C-4E9A-B128-E1D77831E004}"/>
-    <hyperlink ref="A19" r:id="rId123" display="https://www.youtube.com/channel/UCb2aFMZk4tlxotB14sNBQXA/videos" xr:uid="{23581D2E-ABC4-4EB3-A3C0-E68CD1C78EE5}"/>
-    <hyperlink ref="B19" r:id="rId124" display="https://www.youtube.com/c/HeshamAsem/videos" xr:uid="{07A151F3-C735-40DC-88BB-CF09E0986DEC}"/>
-    <hyperlink ref="C19" r:id="rId125" display="https://www.youtube.com/c/DeenaGergis/videos" xr:uid="{D30DD2E9-AE52-4025-B47C-84C8A281780D}"/>
-    <hyperlink ref="D19" r:id="rId126" display="https://www.youtube.com/@GarageEducation/playlists" xr:uid="{C8EEC7D4-5B5C-4B00-918A-F4C9A0FFBE51}"/>
-    <hyperlink ref="F19" r:id="rId127" display="https://www.youtube.com/channel/UCrhMuVw3B1FaEb1GKl3aYZw/videos" xr:uid="{8E6FB702-162B-4DDA-8521-9CBD87E18193}"/>
-    <hyperlink ref="E19" r:id="rId128" display="https://www.youtube.com/@ElgoharyAI/playlists" xr:uid="{2AD9ED64-835C-4939-B59D-6ACF35A2B7A3}"/>
-    <hyperlink ref="H19" r:id="rId129" xr:uid="{D54CEC86-C085-4959-9F69-BB715CF765BB}"/>
-    <hyperlink ref="B17" r:id="rId130" xr:uid="{3922C1BD-D825-4117-B647-EA21B7C8DA87}"/>
-    <hyperlink ref="C17" r:id="rId131" xr:uid="{1A620469-B106-4D25-840A-6704C66E7347}"/>
-    <hyperlink ref="D17" r:id="rId132" display="Abdelrahman Eid" xr:uid="{BCB9FA58-8D60-4E62-B45C-6791602B8161}"/>
-    <hyperlink ref="B21" r:id="rId133" display="نظام Nezam" xr:uid="{F4986893-6147-49EB-9F19-5A7603415A6B}"/>
-    <hyperlink ref="C21" r:id="rId134" display="Software Quality Academy" xr:uid="{5879C0A0-84B5-4E82-9622-30A403AC941C}"/>
-    <hyperlink ref="G19" r:id="rId135" xr:uid="{BFA8DE3F-1DA7-4BC1-AB86-8EE065E82D42}"/>
-    <hyperlink ref="E17" r:id="rId136" display="Ahmed Emam" xr:uid="{1FD4D4D1-5168-4B31-9C35-1575D0B5A573}"/>
-    <hyperlink ref="I19" r:id="rId137" display="Ahmad Bazzi " xr:uid="{C2A5C659-D7D7-4EDB-A370-831F5190395F}"/>
-    <hyperlink ref="F16" r:id="rId138" xr:uid="{23B492EE-E7EE-4E9D-A9E5-BB8266EB28D5}"/>
-    <hyperlink ref="J21" r:id="rId139" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
-    <hyperlink ref="B20" r:id="rId140" display="https://www.youtube.com/user/Zigoo0/videos" xr:uid="{5E5C29CE-ECC5-4F93-BFC3-0767D9112880}"/>
-    <hyperlink ref="C20" r:id="rId141" display="https://www.youtube.com/c/NakerahNetwork/videos" xr:uid="{B4CBD117-12A1-4252-A799-E3490F51BDDB}"/>
-    <hyperlink ref="D20" r:id="rId142" display="https://www.youtube.com/c/HassanSaad0X/videos" xr:uid="{D2B6AB68-86DB-40A1-8438-5B2EBEDC2A56}"/>
-    <hyperlink ref="E20" r:id="rId143" display="https://www.youtube.com/c/EGYPTNETRIDERS/videos" xr:uid="{64C82FAA-D176-4A66-A0D7-61324AD5EFE0}"/>
-    <hyperlink ref="F20" r:id="rId144" display="https://www.youtube.com/channel/UCnSnI7qnX7CFzHSHYYwDKsw/videos" xr:uid="{5570092C-F4A8-4C6F-B227-B793D3C1165B}"/>
-    <hyperlink ref="G20" r:id="rId145" display="https://www.youtube.com/user/abdallahelsokary/videos" xr:uid="{3B16B5AD-D92E-4C5C-9CEC-A574C1C806CC}"/>
+    <hyperlink ref="A1" r:id="rId20" xr:uid="{53DD8C16-5C3E-42FE-9A94-BA5B5F543CC5}"/>
+    <hyperlink ref="B4" r:id="rId21" display="https://www.youtube.com/@AaronJack/videos" xr:uid="{CDCE6ADC-562F-4391-B414-2FA14C5C4F19}"/>
+    <hyperlink ref="C4" r:id="rId22" display="https://www.youtube.com/c/TraversyMedia/videos" xr:uid="{552FBA06-C19D-44FC-9836-8FA87345C50E}"/>
+    <hyperlink ref="A7" r:id="rId23" display="https://www.youtube.com/c/ProgramWithErik/videos" xr:uid="{ED295BFF-A92D-4304-8B83-D034797A270D}"/>
+    <hyperlink ref="H5" r:id="rId24" display="https://www.youtube.com/c/Freecodecamp/videos" xr:uid="{57F022EF-9778-4279-826F-5E7FCE538B58}"/>
+    <hyperlink ref="D4" r:id="rId25" display="https://www.youtube.com/c/WebDevSimplified/playlists" xr:uid="{40E103EF-DBAA-4A7E-ABE3-D98871D6ACB8}"/>
+    <hyperlink ref="E4" r:id="rId26" display="https://www.youtube.com/c/CodingAddict/videos" xr:uid="{CED34249-9AC9-48CB-9DC2-0E0678177168}"/>
+    <hyperlink ref="A4" r:id="rId27" display="https://www.youtube.com/@javascriptmastery/videos" xr:uid="{53FFEB8A-75BD-451F-A4F4-507269A4285E}"/>
+    <hyperlink ref="F4" r:id="rId28" display="https://www.youtube.com/c/drehimself/playlists" xr:uid="{1D2D5D31-7115-4F5D-8AA9-B40DEFAA3A8D}"/>
+    <hyperlink ref="G4" r:id="rId29" display="https://www.youtube.com/c/programmingwithmosh/videos" xr:uid="{DA2124A6-2D87-406B-B1A5-16C68EC129E3}"/>
+    <hyperlink ref="K5" r:id="rId30" display="https://www.youtube.com/c/TheCodingTrain/videos" xr:uid="{0ACD74AC-5589-477B-AD63-04E370FB13DD}"/>
+    <hyperlink ref="H6" r:id="rId31" display="https://www.youtube.com/c/Csharp-video-tutorialsBlogspot/videos" xr:uid="{AA695EF5-C3F1-4738-B6F9-7CB3EC8BD31F}"/>
+    <hyperlink ref="H4" r:id="rId32" display="https://www.youtube.com/c/IBMTechnology/videos" xr:uid="{F6D2592E-B52E-47F7-96A0-FDBD9C647082}"/>
+    <hyperlink ref="A5" r:id="rId33" display="https://www.youtube.com/user/thenewboston/videos" xr:uid="{B210EA99-A466-46DC-BC9C-97369B26DE6A}"/>
+    <hyperlink ref="B5" r:id="rId34" display="https://www.youtube.com/c/Bedimcode/videos" xr:uid="{591E0A73-A608-4161-B3E0-5F2B2627E565}"/>
+    <hyperlink ref="C5" r:id="rId35" display="https://www.youtube.com/c/Mdbootstrap/videos" xr:uid="{01B9D8D4-D246-4F20-84E5-F38611590B18}"/>
+    <hyperlink ref="D5" r:id="rId36" display="https://www.youtube.com/c/Divinector/videos" xr:uid="{66B7E1EC-032D-43AD-B9DD-5045D6B1DCD3}"/>
+    <hyperlink ref="B7" r:id="rId37" display="https://www.youtube.com/c/CodingNepal/videos" xr:uid="{553C8AA2-4DFB-4B9C-9F37-BD32AB07B918}"/>
+    <hyperlink ref="J5" r:id="rId38" display="https://www.youtube.com/c/codewithsadee/featured" xr:uid="{BF2D7DBD-FD18-40B5-8A20-82BC90A7B55D}"/>
+    <hyperlink ref="E5" r:id="rId39" display="https://www.youtube.com/c/MrWebDesignerAnas/videos" xr:uid="{50D4C54E-4793-4E52-9F1E-5EF192B94471}"/>
+    <hyperlink ref="A6" r:id="rId40" display="https://www.youtube.com/c/HusseinNasser-software-engineering/videos" xr:uid="{09E63D11-BDE5-45BA-A866-A53863B7B7E6}"/>
+    <hyperlink ref="B6" r:id="rId41" display="https://www.youtube.com/c/NullByteWHT/videos" xr:uid="{82144690-AC2E-4DC1-90C0-30DCB15A06EB}"/>
+    <hyperlink ref="C6" r:id="rId42" display="https://www.youtube.com/@glich.stream/videos" xr:uid="{80A915AB-E7C9-4A50-9274-10BDA5340CCB}"/>
+    <hyperlink ref="J4" r:id="rId43" display="https://www.youtube.com/c/CodeMonkeyUnity/videos" xr:uid="{D1DB27DD-0E02-4397-B829-2269CB6B0D51}"/>
+    <hyperlink ref="I6" r:id="rId44" display="https://www.youtube.com/c/derekbanas/videos" xr:uid="{06C2E9BD-6EF7-489D-84FC-007C534CA3E0}"/>
+    <hyperlink ref="D6" r:id="rId45" display="https://www.youtube.com/@GeeksLesson/videos" xr:uid="{29B4CAFA-9B7C-4F0B-9124-C231DE35F525}"/>
+    <hyperlink ref="F5" r:id="rId46" display="https://www.youtube.com/@EasyTutorialsVideo/videos" xr:uid="{DE765ACE-49E9-4E9F-99D5-33ED6D6B3248}"/>
+    <hyperlink ref="E6" r:id="rId47" display="https://www.youtube.com/@Devdojo/videos" xr:uid="{5DA4350C-0804-4502-A352-BAEA8ACC7981}"/>
+    <hyperlink ref="F6" r:id="rId48" display="https://www.youtube.com/@gennadykorotkevich8583/videos" xr:uid="{2061811F-1BFB-4014-9A8C-2E418A73504C}"/>
+    <hyperlink ref="J6" r:id="rId49" display="https://www.youtube.com/@NetNinja/videos" xr:uid="{FCC10538-7057-4FDC-A419-D1F674F39ECE}"/>
+    <hyperlink ref="I5" r:id="rId50" display="https://www.youtube.com/@nesoacademy/playlists" xr:uid="{B3B96C55-5C5F-4886-AA60-36B4FED83589}"/>
+    <hyperlink ref="G6" r:id="rId51" display="https://www.youtube.com/@Telmosampaio/videos" xr:uid="{4D832DDC-338C-4401-88B5-BB94EB2D9EFA}"/>
+    <hyperlink ref="G5" r:id="rId52" display="https://www.youtube.com/@academind/videos" xr:uid="{B68F0714-2D2A-4302-9AD7-9417AAD3C496}"/>
+    <hyperlink ref="D9" r:id="rId53" xr:uid="{6DEB8276-3DB7-47CE-83EE-03A961CF411F}"/>
+    <hyperlink ref="A11:A12" r:id="rId54" display="د احمد سالم" xr:uid="{E0B87021-DDDD-487F-B690-B802ACF2250C}"/>
+    <hyperlink ref="H9:H10" r:id="rId55" display="Mostafa Ibrahim" xr:uid="{B60FE087-C7FB-4C06-88B7-94A81752B286}"/>
+    <hyperlink ref="F9" r:id="rId56" xr:uid="{E58EAE39-8D52-4052-BAC6-3D66AF8351CB}"/>
+    <hyperlink ref="C13" r:id="rId57" xr:uid="{C0F582AD-36E7-4D4A-A73D-067D25548676}"/>
+    <hyperlink ref="B9" r:id="rId58" xr:uid="{F56BF516-B532-426A-9FA9-E8F8FFD08D25}"/>
+    <hyperlink ref="K11" r:id="rId59" xr:uid="{0E2B3541-D8CF-4394-9666-827680B39611}"/>
+    <hyperlink ref="K12" r:id="rId60" xr:uid="{63306BF5-932C-4D10-86ED-384DC954AAE2}"/>
+    <hyperlink ref="F9" r:id="rId61" display="عمرو غنيم" xr:uid="{B7345256-B326-42EC-9F09-67B433748932}"/>
+    <hyperlink ref="K10" r:id="rId62" xr:uid="{1B573493-63BF-4A67-89F1-677A93D81950}"/>
+    <hyperlink ref="J11" r:id="rId63" xr:uid="{94C7AC57-206C-4653-B9DF-4B53A105EE5A}"/>
+    <hyperlink ref="I12" r:id="rId64" xr:uid="{B66D40EA-B007-4575-82A9-4312B399FBC6}"/>
+    <hyperlink ref="J12" r:id="rId65" display="https://www.youtube.com/user/quantum01010101/videos" xr:uid="{2B7471E3-3DF0-4077-A577-C0241D70B4D2}"/>
+    <hyperlink ref="J9" r:id="rId66" xr:uid="{E9BA8146-63BA-4ECC-9FB5-0C9E37932207}"/>
+    <hyperlink ref="H12" r:id="rId67" display="Ramy Hakam" xr:uid="{A3053254-9A90-4EAD-95B7-C264ED23BAE5}"/>
+    <hyperlink ref="K9" r:id="rId68" display="Mahmoud Hamza" xr:uid="{A6B863E7-00E2-4E4A-9169-9088FC9AE525}"/>
+    <hyperlink ref="J10" r:id="rId69" display="Ahmed Rabie" xr:uid="{1B06C340-8268-4A40-8264-F64DCCF24B52}"/>
+    <hyperlink ref="A9" r:id="rId70" display="Codographia" xr:uid="{6B61F208-7241-4160-9239-17A410F707B7}"/>
+    <hyperlink ref="G12" r:id="rId71" display="Yallacode" xr:uid="{152703B2-7109-4991-A7B6-93FDF5ADC3B9}"/>
+    <hyperlink ref="D12" r:id="rId72" xr:uid="{9702F97C-E5E9-4BA0-8F1B-570FF9A78DFB}"/>
+    <hyperlink ref="G10" r:id="rId73" display="Ahmed Elemam" xr:uid="{CFA0D417-52C6-4758-AD80-C47090AF7448}"/>
+    <hyperlink ref="B11" r:id="rId74" display="Ahmed Ali" xr:uid="{D9C365E6-4006-4810-8E05-EEC3C6341604}"/>
+    <hyperlink ref="H11" r:id="rId75" display="Mohamed Moshrif" xr:uid="{5C4A5B3A-541F-4D17-B39A-55D413055249}"/>
+    <hyperlink ref="B10" r:id="rId76" display="Mohamed Elsherif" xr:uid="{9D5B0049-ED5B-4501-A8E2-AC70B99E4C36}"/>
+    <hyperlink ref="C11:C12" r:id="rId77" display="Software ArchTalks" xr:uid="{F7F955F0-7859-46BA-B427-E26A26E09528}"/>
+    <hyperlink ref="D13" r:id="rId78" xr:uid="{515338FB-7280-4251-87BE-DAD5216069A7}"/>
+    <hyperlink ref="H11:H12" r:id="rId79" display="Unique Coderz Academy" xr:uid="{954502D8-2BB2-4CBE-BB1F-B36DFCE6158E}"/>
+    <hyperlink ref="C9" r:id="rId80" display="Power Platform Geeks" xr:uid="{2C86C2E7-8191-401F-8311-A1E9B95423DC}"/>
+    <hyperlink ref="D10" r:id="rId81" display="أكاديمية علوم المستقبل" xr:uid="{191CDB48-5C28-43D8-BE67-F7F31B6A96E2}"/>
+    <hyperlink ref="B13" r:id="rId82" xr:uid="{BE87DB9E-FE55-4AE1-A369-7D8D9D3D0D92}"/>
+    <hyperlink ref="C10" r:id="rId83" display="Tech Talks in Arabic" xr:uid="{BFEFAD2D-2B5B-4F44-BE92-574B47CAA73B}"/>
+    <hyperlink ref="B12" r:id="rId84" display="codeZone" xr:uid="{803D0DCB-CA2C-4D6E-9EC6-019A235835B0}"/>
+    <hyperlink ref="E11" r:id="rId85" xr:uid="{C4D20A37-B811-48D0-8F12-4B945331DFC9}"/>
+    <hyperlink ref="E10" r:id="rId86" display="Mohamed Radwan" xr:uid="{3C6AD7DD-F10D-4D0B-A5AA-40D543FE1284}"/>
+    <hyperlink ref="I9" r:id="rId87" xr:uid="{D4D8E4F8-C35F-41C1-971C-B74D02FFD7D9}"/>
+    <hyperlink ref="A12" r:id="rId88" display="Mohammed Reda" xr:uid="{A0DF64ED-6E18-40F0-BE3A-A623BDBE7C85}"/>
+    <hyperlink ref="F12" r:id="rId89" display="Adel Sabour" xr:uid="{28F9FE34-C927-4AFF-95BD-41B6D00E2DB8}"/>
+    <hyperlink ref="G11" r:id="rId90" xr:uid="{7955FE3E-49DD-4825-8F58-E07F6D803AF6}"/>
+    <hyperlink ref="A13" r:id="rId91" xr:uid="{CED1E2D7-8A80-4A39-91AA-6A85626F7AF5}"/>
+    <hyperlink ref="D11" r:id="rId92" xr:uid="{59456DD3-842C-4BB4-9420-AEEF9C3778DE}"/>
+    <hyperlink ref="I11" r:id="rId93" display="Adel Nasim " xr:uid="{87308E2D-5038-4FDB-B741-F05D2175E917}"/>
+    <hyperlink ref="A10" r:id="rId94" display="Elzero Web School " xr:uid="{042C9FE7-86ED-42C3-887C-991A5F4F6D35}"/>
+    <hyperlink ref="I13" r:id="rId95" display="Troubleshooter Youssef Shawky" xr:uid="{433B5A8B-B0D5-4D3D-AFE0-5B1CF85B6F86}"/>
+    <hyperlink ref="J13" r:id="rId96" xr:uid="{6AB742FB-16E7-468F-A229-5355F89A2FF8}"/>
+    <hyperlink ref="C14" r:id="rId97" display="Mohamed Ebrahim Saad" xr:uid="{AA31F398-F28F-4D80-B9CD-173873E7BB95}"/>
+    <hyperlink ref="D14" r:id="rId98" display="Ahmed Etefy أحمد عطيفي" xr:uid="{A6904940-7ECA-4108-A724-E5821FB25E0D}"/>
+    <hyperlink ref="A14" r:id="rId99" xr:uid="{B990FC83-DE00-4E00-99EB-0B159B93FFE7}"/>
+    <hyperlink ref="F13" r:id="rId100" xr:uid="{71A59E60-8CA1-47E2-AE89-77B4F26F52CF}"/>
+    <hyperlink ref="E14" r:id="rId101" xr:uid="{A9E12E3F-BAB0-455E-A0CD-65627B1B0405}"/>
+    <hyperlink ref="H13" r:id="rId102" xr:uid="{527770B5-405B-44C7-8542-0841810042C4}"/>
+    <hyperlink ref="E13" r:id="rId103" xr:uid="{DDD3F70D-2DDB-40DD-99E0-DE6958D511A7}"/>
+    <hyperlink ref="K13" r:id="rId104" xr:uid="{7876CC36-0C8C-4E9A-B128-E1D77831E004}"/>
+    <hyperlink ref="A16" r:id="rId105" display="https://www.youtube.com/channel/UCb2aFMZk4tlxotB14sNBQXA/videos" xr:uid="{23581D2E-ABC4-4EB3-A3C0-E68CD1C78EE5}"/>
+    <hyperlink ref="B16" r:id="rId106" display="https://www.youtube.com/c/HeshamAsem/videos" xr:uid="{07A151F3-C735-40DC-88BB-CF09E0986DEC}"/>
+    <hyperlink ref="C16" r:id="rId107" display="https://www.youtube.com/c/DeenaGergis/videos" xr:uid="{D30DD2E9-AE52-4025-B47C-84C8A281780D}"/>
+    <hyperlink ref="D16" r:id="rId108" display="https://www.youtube.com/@GarageEducation/playlists" xr:uid="{C8EEC7D4-5B5C-4B00-918A-F4C9A0FFBE51}"/>
+    <hyperlink ref="F16" r:id="rId109" display="https://www.youtube.com/channel/UCrhMuVw3B1FaEb1GKl3aYZw/videos" xr:uid="{8E6FB702-162B-4DDA-8521-9CBD87E18193}"/>
+    <hyperlink ref="E16" r:id="rId110" display="https://www.youtube.com/@ElgoharyAI/playlists" xr:uid="{2AD9ED64-835C-4939-B59D-6ACF35A2B7A3}"/>
+    <hyperlink ref="H16" r:id="rId111" xr:uid="{D54CEC86-C085-4959-9F69-BB715CF765BB}"/>
+    <hyperlink ref="K14" r:id="rId112" xr:uid="{3922C1BD-D825-4117-B647-EA21B7C8DA87}"/>
+    <hyperlink ref="H14" r:id="rId113" xr:uid="{1A620469-B106-4D25-840A-6704C66E7347}"/>
+    <hyperlink ref="I14" r:id="rId114" display="Abdelrahman Eid" xr:uid="{BCB9FA58-8D60-4E62-B45C-6791602B8161}"/>
+    <hyperlink ref="G16" r:id="rId115" xr:uid="{BFA8DE3F-1DA7-4BC1-AB86-8EE065E82D42}"/>
+    <hyperlink ref="J14" r:id="rId116" display="Ahmed Emam" xr:uid="{1FD4D4D1-5168-4B31-9C35-1575D0B5A573}"/>
+    <hyperlink ref="I16" r:id="rId117" display="Ahmad Bazzi " xr:uid="{C2A5C659-D7D7-4EDB-A370-831F5190395F}"/>
+    <hyperlink ref="F14" r:id="rId118" xr:uid="{23B492EE-E7EE-4E9D-A9E5-BB8266EB28D5}"/>
+    <hyperlink ref="A18" r:id="rId119" display="https://www.youtube.com/user/Zigoo0/videos" xr:uid="{5E5C29CE-ECC5-4F93-BFC3-0767D9112880}"/>
+    <hyperlink ref="B18" r:id="rId120" display="https://www.youtube.com/c/NakerahNetwork/videos" xr:uid="{B4CBD117-12A1-4252-A799-E3490F51BDDB}"/>
+    <hyperlink ref="C18" r:id="rId121" display="https://www.youtube.com/c/HassanSaad0X/videos" xr:uid="{D2B6AB68-86DB-40A1-8438-5B2EBEDC2A56}"/>
+    <hyperlink ref="D18" r:id="rId122" display="https://www.youtube.com/c/EGYPTNETRIDERS/videos" xr:uid="{64C82FAA-D176-4A66-A0D7-61324AD5EFE0}"/>
+    <hyperlink ref="E18" r:id="rId123" display="https://www.youtube.com/channel/UCnSnI7qnX7CFzHSHYYwDKsw/videos" xr:uid="{5570092C-F4A8-4C6F-B227-B793D3C1165B}"/>
+    <hyperlink ref="F18" r:id="rId124" display="https://www.youtube.com/user/abdallahelsokary/videos" xr:uid="{3B16B5AD-D92E-4C5C-9CEC-A574C1C806CC}"/>
+    <hyperlink ref="G14" r:id="rId125" xr:uid="{2D33AA61-AE75-4D18-8FBD-79C41FAAB066}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId146"/>
+  <pageSetup orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
-  <dimension ref="A1:P11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
-    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
-    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
-    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
-    <hyperlink ref="D1" location="'0'!A1" display="Back" xr:uid="{2391EB39-9979-4CD0-A0E3-6AAEDED0F11A}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3653,236 +3116,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="64"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="27" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
       <c r="A21" s="2"/>
@@ -3912,12 +3375,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="33" customHeight="1"/>
@@ -3930,326 +3393,258 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="42" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" ht="51.75" customHeight="1">
+      <c r="G3" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="46.5" customHeight="1">
+      <c r="G4" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A5" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1">
+      <c r="A7" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+    </row>
+    <row r="8" spans="1:10" ht="33" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="31" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="C9" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="33" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="33" customHeight="1">
+      <c r="A11" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="33" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="33" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="33" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="33" customHeight="1">
+      <c r="A15" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="16" spans="1:10" ht="33" customHeight="1">
+      <c r="A16" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="61" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A15:J15"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://embold.io/" xr:uid="{09129ED8-EAF3-4242-8BCF-AFCDC022C315}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.nagios.org/" xr:uid="{38744A8F-F834-4901-AB31-53F9B4D66FF8}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://jfrog.com/" xr:uid="{BA2FA70C-F332-4383-8C50-6670A9D19726}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://www.nginx.com/" xr:uid="{AC6E32E6-BAF4-47E3-B638-F2130F85DF48}"/>
-    <hyperlink ref="E1" r:id="rId5" display="https://www.datadoghq.com/" xr:uid="{4E8B0C06-4562-4D3D-AFDD-E596A31BA4AE}"/>
-    <hyperlink ref="F1" r:id="rId6" display="https://www.squarespace.com/" xr:uid="{96C2E3C1-5484-45A8-BDED-53F22145949F}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://kubernetes.io/" xr:uid="{7654ABAF-85F6-4567-98EB-D0D142582DC3}"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://insomnia.rest/" xr:uid="{A2F7A9E4-D4AC-47A1-80C6-C7CB1E26AFFE}"/>
-    <hyperlink ref="C2" r:id="rId9" display="https://bugman.atlassian.net/jira/your-work" xr:uid="{15730078-2684-4DC9-B54F-203BCB5B379D}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://www.gitkraken.com/" xr:uid="{70870505-0DE6-4D35-BE06-37777A7F08D2}"/>
-    <hyperlink ref="E2" r:id="rId11" display="https://www.mutaz.net/ar.php" xr:uid="{1D504EF2-316F-45FB-88AB-31526D7FF2A9}"/>
-    <hyperlink ref="F2" r:id="rId12" display="https://www.w3.org/" xr:uid="{D0892A50-3133-4921-90D8-5F168A545EBC}"/>
-    <hyperlink ref="A3" r:id="rId13" display="https://www.w3schools.com/" xr:uid="{6382595A-8C27-41D8-8F0A-81FB9B3B426A}"/>
-    <hyperlink ref="B3" r:id="rId14" display="https://visualgo.net/en" xr:uid="{EEB14DB1-DEB6-4503-812F-F4E68AC8246A}"/>
-    <hyperlink ref="C3" r:id="rId15" display="https://algorithm-visualizer.org/" xr:uid="{490E414B-E6F5-4C42-A783-C896FEED7CD3}"/>
-    <hyperlink ref="D3" r:id="rId16" display="https://mailchimp.com/" xr:uid="{F2C07CCF-4E08-4A60-B85B-DEDC4573AA28}"/>
-    <hyperlink ref="E3" r:id="rId17" display="https://www.wappalyzer.com/" xr:uid="{887996CE-5EA1-4BAC-B50E-D1444E36D6B6}"/>
-    <hyperlink ref="F3" r:id="rId18" display="https://www.wix.com/" xr:uid="{45B7C37A-7819-4513-8C62-941A8D4FAC4F}"/>
-    <hyperlink ref="A4" r:id="rId19" display="https://app.diagrams.net/" xr:uid="{03991162-20B9-4F02-B022-E755A0E3AED1}"/>
-    <hyperlink ref="B4" r:id="rId20" display="https://onlinesim.io/" xr:uid="{BDCD2A28-8D6F-48F3-B4EB-7B56E7B26607}"/>
-    <hyperlink ref="C4" r:id="rId21" display="https://imagecompressor.com/" xr:uid="{A2BBF990-5FE9-4C61-AB94-0689B26FAC1D}"/>
-    <hyperlink ref="D4" r:id="rId22" display="https://app.creately.com/diagram/MIDrCwKN4OR/edit" xr:uid="{3D7EE268-80E8-49C2-9A66-B748924F2A2B}"/>
-    <hyperlink ref="E4" r:id="rId23" display="https://edabit.com/" xr:uid="{1783779C-25EB-4DD5-A383-DE5087AF4BAE}"/>
-    <hyperlink ref="F4" r:id="rId24" display="https://www.multcloud.com/" xr:uid="{F364012A-060B-49CE-A2C8-A5315CC3755D}"/>
-    <hyperlink ref="A5" r:id="rId25" display="https://www.htmlquick.com/reference/tags.html" xr:uid="{CD95A756-F269-47C6-A9F6-2FFAEE5BE49F}"/>
-    <hyperlink ref="B5" r:id="rId26" display="https://tableconvert.com/excel-to-html" xr:uid="{DF0FA0A5-AD97-4BDE-8A1B-DB4891A96589}"/>
-    <hyperlink ref="C5" r:id="rId27" display="https://htmlreference.io/" xr:uid="{C93094F3-79FF-4D23-9B02-AFA8640A1307}"/>
-    <hyperlink ref="D5" r:id="rId28" display="https://moatazabdalmageed.github.io/" xr:uid="{13A21E93-E633-4AD4-A986-18875718315B}"/>
-    <hyperlink ref="E5" r:id="rId29" display="https://my.apify.com/" xr:uid="{9405F4F5-86CD-470B-9B96-83D64763CE7C}"/>
-    <hyperlink ref="F5" r:id="rId30" display="https://cpanel.net/" xr:uid="{C1DD9E49-D529-412D-9D06-65E03C142D31}"/>
-    <hyperlink ref="A6" r:id="rId31" display="https://webflow.com/" xr:uid="{216C6FB0-2A22-4604-BB53-DDC1E930B6DA}"/>
-    <hyperlink ref="B6" r:id="rId32" display="https://www.remove.bg/" xr:uid="{A4292837-A376-44DD-B45D-D5E18531CD94}"/>
-    <hyperlink ref="C6" r:id="rId33" display="https://www.crucial.com/" xr:uid="{22D1F340-0122-459C-BF2C-1FC9EB547646}"/>
-    <hyperlink ref="D6" r:id="rId34" display="https://www.mathworks.com/products/matlab.html" xr:uid="{63978288-6A08-4EE6-8E16-DD1E43D09320}"/>
-    <hyperlink ref="E6" r:id="rId35" display="https://www.rondebruin.nl/efb/efb.htm?fbclid=IwAR2awvsLCaK3-kDjnfHZeu7h0YYagLuVCLBxcqss52KaTEXJgrxATRNJcnQ" xr:uid="{27A1BBAF-5962-4727-954D-1C18A4835A18}"/>
-    <hyperlink ref="A8" r:id="rId36" display="https://hive.com/" xr:uid="{E66A7066-05B2-417F-B720-246BECF888CA}"/>
-    <hyperlink ref="B8" r:id="rId37" display="https://www.r-project.org/" xr:uid="{5B5E5028-2E69-42DB-8457-6D71FBB8F992}"/>
-    <hyperlink ref="C8" r:id="rId38" display="https://hadoop.apache.org/" xr:uid="{0A9ACFA2-1F15-4816-BD96-BEADFDC7C372}"/>
-    <hyperlink ref="D8" r:id="rId39" display="https://www.ibm.com/eg-en/products/cognos-analytics" xr:uid="{E7A4076F-3C6C-44E2-A72A-68B8BC2BC968}"/>
-    <hyperlink ref="E8" r:id="rId40" display="https://www.tensorflow.org/" xr:uid="{FF64ED02-B682-4CD6-9199-3B0CE381CF3E}"/>
-    <hyperlink ref="A10" r:id="rId41" display="https://www.postgresql.org/docs/13/admin.html" xr:uid="{3972CA27-0148-4472-9EDF-5236152AFD6E}"/>
-    <hyperlink ref="B10" r:id="rId42" display="https://www.mongodb.com/" xr:uid="{6E002052-4772-49F8-B650-C529B7A3EA04}"/>
-    <hyperlink ref="C10" r:id="rId43" display="https://drawsql.app/" xr:uid="{519F9392-99FB-4481-B003-BED795D0CB4F}"/>
-    <hyperlink ref="D10" r:id="rId44" display="https://dev.mysql.com/doc/" xr:uid="{043F5986-1701-4645-AD6C-CA6D1FA921CE}"/>
-    <hyperlink ref="E10" r:id="rId45" display="https://localhost/phpmyadmin/index.php?route=/server/databases&amp;server=1" xr:uid="{2AF96C54-1E47-4CF8-BECB-39C377B4B7F1}"/>
-    <hyperlink ref="F10" r:id="rId46" display="https://sqlitebrowser.org/" xr:uid="{AA1C46EB-972F-47A4-AE16-63809EB9BDA6}"/>
-    <hyperlink ref="A11" r:id="rId47" display="https://www.sqlite.org/docs.html" xr:uid="{FD4A7563-020A-44E6-88E1-1A72817E8E96}"/>
-    <hyperlink ref="B11" r:id="rId48" display="https://dbdb.io/" xr:uid="{37FCADC4-A8C0-4018-A921-CB82C5D24068}"/>
-    <hyperlink ref="C11" r:id="rId49" display="https://mongoosejs.com/" xr:uid="{4EC40A90-EB52-47D4-BB60-279B899BEEAC}"/>
-    <hyperlink ref="A13" r:id="rId50" display="https://firebase.google.com/" xr:uid="{B62EC1AC-F943-454F-983B-B5622BE91B73}"/>
-    <hyperlink ref="B13" r:id="rId51" display="https://flutterawesome.com/" xr:uid="{3D651EC5-16C7-4C67-93F6-A0152BB8170C}"/>
-    <hyperlink ref="C13" r:id="rId52" display="https://aqueduct.io/" xr:uid="{0F05EAB3-5270-4A2C-B68F-266547F1247A}"/>
-    <hyperlink ref="A15" r:id="rId53" display="https://www.facebook.com/groups/583971245586828/" xr:uid="{A586A07F-8899-4E29-ACE6-9EDC2F8B8941}"/>
-    <hyperlink ref="B15" r:id="rId54" display="https://www.facebook.com/groups/392791044077830/" xr:uid="{871066E6-A405-4D91-B74E-895AFF250CBC}"/>
-    <hyperlink ref="C15" r:id="rId55" display="https://www.youtube.com/c/DrMohamedShaltout" xr:uid="{8D629B15-DFFF-4DCC-BA70-B0046BC7CD3E}"/>
-    <hyperlink ref="D15" r:id="rId56" display="https://goart.fotor.com/nft" xr:uid="{339A5056-9172-44C7-8234-EE4D60B0028B}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://visualgo.net/en" xr:uid="{EEB14DB1-DEB6-4503-812F-F4E68AC8246A}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://algorithm-visualizer.org/" xr:uid="{490E414B-E6F5-4C42-A783-C896FEED7CD3}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://app.diagrams.net/" xr:uid="{03991162-20B9-4F02-B022-E755A0E3AED1}"/>
+    <hyperlink ref="F1" r:id="rId4" display="https://onlinesim.io/" xr:uid="{BDCD2A28-8D6F-48F3-B4EB-7B56E7B26607}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://app.creately.com/diagram/MIDrCwKN4OR/edit" xr:uid="{3D7EE268-80E8-49C2-9A66-B748924F2A2B}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://www.multcloud.com/" xr:uid="{F364012A-060B-49CE-A2C8-A5315CC3755D}"/>
+    <hyperlink ref="D1" r:id="rId7" display="https://tableconvert.com/excel-to-html" xr:uid="{DF0FA0A5-AD97-4BDE-8A1B-DB4891A96589}"/>
+    <hyperlink ref="C1" r:id="rId8" display="https://moatazabdalmageed.github.io/" xr:uid="{13A21E93-E633-4AD4-A986-18875718315B}"/>
+    <hyperlink ref="E1" r:id="rId9" display="https://webflow.com/" xr:uid="{216C6FB0-2A22-4604-BB53-DDC1E930B6DA}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.crucial.com/" xr:uid="{22D1F340-0122-459C-BF2C-1FC9EB547646}"/>
+    <hyperlink ref="A6" r:id="rId11" display="https://hive.com/" xr:uid="{E66A7066-05B2-417F-B720-246BECF888CA}"/>
+    <hyperlink ref="D6" r:id="rId12" display="https://www.ibm.com/eg-en/products/cognos-analytics" xr:uid="{E7A4076F-3C6C-44E2-A72A-68B8BC2BC968}"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://www.tensorflow.org/" xr:uid="{FF64ED02-B682-4CD6-9199-3B0CE381CF3E}"/>
+    <hyperlink ref="A8" r:id="rId14" display="https://www.postgresql.org/docs/13/admin.html" xr:uid="{3972CA27-0148-4472-9EDF-5236152AFD6E}"/>
+    <hyperlink ref="B8" r:id="rId15" display="https://www.mongodb.com/" xr:uid="{6E002052-4772-49F8-B650-C529B7A3EA04}"/>
+    <hyperlink ref="C8" r:id="rId16" display="https://drawsql.app/" xr:uid="{519F9392-99FB-4481-B003-BED795D0CB4F}"/>
+    <hyperlink ref="D8" r:id="rId17" display="https://dev.mysql.com/doc/" xr:uid="{043F5986-1701-4645-AD6C-CA6D1FA921CE}"/>
+    <hyperlink ref="E8" r:id="rId18" display="https://localhost/phpmyadmin/index.php?route=/server/databases&amp;server=1" xr:uid="{2AF96C54-1E47-4CF8-BECB-39C377B4B7F1}"/>
+    <hyperlink ref="F8" r:id="rId19" display="https://sqlitebrowser.org/" xr:uid="{AA1C46EB-972F-47A4-AE16-63809EB9BDA6}"/>
+    <hyperlink ref="A9" r:id="rId20" display="https://www.sqlite.org/docs.html" xr:uid="{FD4A7563-020A-44E6-88E1-1A72817E8E96}"/>
+    <hyperlink ref="B9" r:id="rId21" display="https://dbdb.io/" xr:uid="{37FCADC4-A8C0-4018-A921-CB82C5D24068}"/>
+    <hyperlink ref="C9" r:id="rId22" display="https://mongoosejs.com/" xr:uid="{4EC40A90-EB52-47D4-BB60-279B899BEEAC}"/>
+    <hyperlink ref="D9" r:id="rId23" display="https://firebase.google.com/" xr:uid="{B62EC1AC-F943-454F-983B-B5622BE91B73}"/>
+    <hyperlink ref="A11" r:id="rId24" display="https://flutterawesome.com/" xr:uid="{3D651EC5-16C7-4C67-93F6-A0152BB8170C}"/>
+    <hyperlink ref="B11" r:id="rId25" display="https://aqueduct.io/" xr:uid="{0F05EAB3-5270-4A2C-B68F-266547F1247A}"/>
+    <hyperlink ref="A13" r:id="rId26" display="https://www.facebook.com/groups/583971245586828/" xr:uid="{A586A07F-8899-4E29-ACE6-9EDC2F8B8941}"/>
+    <hyperlink ref="B13" r:id="rId27" display="https://www.facebook.com/groups/392791044077830/" xr:uid="{871066E6-A405-4D91-B74E-895AFF250CBC}"/>
+    <hyperlink ref="C13" r:id="rId28" display="https://www.youtube.com/c/DrMohamedShaltout" xr:uid="{8D629B15-DFFF-4DCC-BA70-B0046BC7CD3E}"/>
     <hyperlink ref="G1" location="Characters!A1" display="Back" xr:uid="{940003DD-4273-4C3A-A1DD-52FC2E9C9FED}"/>
     <hyperlink ref="G1:G2" location="'0'!A1" display="Back" xr:uid="{1FCEED60-A3A1-4D96-93CB-D5D6E92C6E2A}"/>
-    <hyperlink ref="G4" location="'3DP'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
-    <hyperlink ref="G5" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
-    <hyperlink ref="G6" location="OPL!A1" display="Other PL" xr:uid="{2A6A60C0-0789-4D98-B1EE-003A10E190EE}"/>
-    <hyperlink ref="G7" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
+    <hyperlink ref="G3" location="'3DP'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
+    <hyperlink ref="G5" location="OPL!A1" display="Other PL" xr:uid="{2A6A60C0-0789-4D98-B1EE-003A10E190EE}"/>
+    <hyperlink ref="G4" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
+    <hyperlink ref="C6" r:id="rId29" display="https://hadoop.apache.org/" xr:uid="{0A9ACFA2-1F15-4816-BD96-BEADFDC7C372}"/>
+    <hyperlink ref="B6" r:id="rId30" display="https://www.r-project.org/" xr:uid="{5B5E5028-2E69-42DB-8457-6D71FBB8F992}"/>
+    <hyperlink ref="A16" r:id="rId31" display="نظام Nezam" xr:uid="{F4986893-6147-49EB-9F19-5A7603415A6B}"/>
+    <hyperlink ref="B16" r:id="rId32" display="Software Quality Academy" xr:uid="{5879C0A0-84B5-4E82-9622-30A403AC941C}"/>
+    <hyperlink ref="J16" r:id="rId33" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4260,199 +3655,199 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="62" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="46" t="s">
+      <c r="A1" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4476,155 +3871,155 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="53.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="42" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="42"/>
-    <col min="12" max="12" width="16.7109375" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="62.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="38" customWidth="1"/>
+    <col min="4" max="11" width="9.140625" style="38"/>
+    <col min="12" max="12" width="16.7109375" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="J1" s="48" t="s">
+      <c r="A1" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>456</v>
+      <c r="A2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="L3" s="43"/>
-    </row>
-    <row r="4" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A8" s="44" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A9" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A9" s="44" t="s">
+    <row r="10" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A11" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L14" s="45"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L15" s="45"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="53.25" customHeight="1">
-      <c r="L16" s="45"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="12:12" ht="53.25" customHeight="1">
-      <c r="L17" s="45"/>
+      <c r="L17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4652,207 +4047,207 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="81.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="20.42578125" style="39"/>
+    <col min="1" max="16384" width="20.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="J1" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="81.75" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="F2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="G2" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81.75" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="H3" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:10" ht="81.75" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="J6" s="37" t="s">
-        <v>333</v>
+      <c r="A6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="J8" s="37" t="s">
-        <v>330</v>
+      <c r="A8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A10" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4927,49 +4322,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="65.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="65.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -5015,147 +4410,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5191,224 +4586,224 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="63.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="19.42578125" style="20"/>
+    <col min="1" max="16384" width="19.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="63.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="2.25" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="1.5" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="2.25" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A9" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" ht="75.75" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="K10" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="1.5" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="72.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A9" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="75.75" customHeight="1">
-      <c r="A10" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5466,103 +4861,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="17.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
-    <hyperlink ref="E4" r:id="rId2" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
-    <hyperlink ref="D4" r:id="rId3" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
-    <hyperlink ref="C4" r:id="rId4" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
-    <hyperlink ref="B4" r:id="rId5" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
-    <hyperlink ref="B1" r:id="rId6" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
-    <hyperlink ref="B2" r:id="rId7" display=".Net Developers Egypt" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
-    <hyperlink ref="C2" r:id="rId8" display="Dotnet Egypt" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
-    <hyperlink ref="F1" location="'0'!A1" display="Back" xr:uid="{352234C4-A9B2-4D1B-AACA-814F27504EFF}"/>
-    <hyperlink ref="A1" r:id="rId9" xr:uid="{4AD9430E-6D7C-47FA-8CEC-6CD3887A1AC0}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{B8497069-84B2-4EF2-A568-E7C09C8431B3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -5583,76 +4881,76 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="64"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5661,34 +4959,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="G11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -5710,7 +5008,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5722,7 +5020,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5739,7 +5037,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5750,7 +5048,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5761,7 +5059,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5775,17 +5073,17 @@
     </row>
     <row r="29" spans="1:3">
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5803,4 +5101,255 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
+    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
+    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
+    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
+    <hyperlink ref="D1" location="'0'!A1" display="Back" xr:uid="{2391EB39-9979-4CD0-A0E3-6AAEDED0F11A}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>